--- a/legendre_out/DATA/o17_ng/a0/o17_ng_a0Fit.xlsx
+++ b/legendre_out/DATA/o17_ng/a0/o17_ng_a0Fit.xlsx
@@ -398,19 +398,19 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>1.196841340151664e-11</v>
+        <v>9.52416076240819e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>8.809681153482446e-13</v>
+        <v>7.010521512096474e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>21.69066747376101</v>
+        <v>21.69066755141935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00137746394493604</v>
+        <v>0.001377463900417042</v>
       </c>
       <c r="F2" t="n">
-        <v>3.615111245626835</v>
+        <v>3.615111258569892</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>9.614300550477731e-12</v>
+        <v>7.650817291741354e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.193311801630822e-12</v>
+        <v>9.496073590887457e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>19.14706096303073</v>
+        <v>19.14706115121426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003922345978189497</v>
+        <v>0.003922345678318544</v>
       </c>
       <c r="F3" t="n">
-        <v>3.191176827171788</v>
+        <v>3.191176858535711</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>9.104551630868927e-12</v>
+        <v>7.2451719788587e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.197995544051786e-12</v>
+        <v>9.53334562513629e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.222886390689311</v>
+        <v>2.222886384336185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8981010319694535</v>
+        <v>0.8981010326151201</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3704810651148852</v>
+        <v>0.3704810640560308</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>1.105440313240656e-11</v>
+        <v>8.796814500008998e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.352043942387039e-12</v>
+        <v>1.075922383211596e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>7.39798893185266</v>
+        <v>7.397988867631251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2856033214951979</v>
+        <v>0.2856033269318848</v>
       </c>
       <c r="F5" t="n">
-        <v>1.232998155308777</v>
+        <v>1.232998144605209</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +478,19 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>1.299805597462865e-11</v>
+        <v>1.03435243131672e-12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6268236613068e-12</v>
+        <v>1.294585136311559e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.916926419005827</v>
+        <v>6.916926481728093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3285982217197698</v>
+        <v>0.3285982158159027</v>
       </c>
       <c r="F6" t="n">
-        <v>1.152821069834304</v>
+        <v>1.152821080288015</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +498,19 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1.033273460640068e-11</v>
+        <v>8.222528945741862e-13</v>
       </c>
       <c r="C7" t="n">
-        <v>1.649793856434949e-12</v>
+        <v>1.312864236985273e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58175458233483</v>
+        <v>1.581754594272174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9538801244985692</v>
+        <v>0.9538801236521368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2636257637224716</v>
+        <v>0.263625765712029</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +518,19 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>1.166139055127604e-11</v>
+        <v>9.279839733019641e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.329668186138998e-12</v>
+        <v>1.058116322024041e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>10.46290140651599</v>
+        <v>10.46290121919118</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1064635148702631</v>
+        <v>0.1064635217218225</v>
       </c>
       <c r="F8" t="n">
-        <v>1.743816901085999</v>
+        <v>1.743816869865197</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +538,19 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>1.223860916636304e-11</v>
+        <v>9.739175736212624e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.164214350625246e-12</v>
+        <v>9.264523457355864e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>28.83169413259617</v>
+        <v>28.83169399036657</v>
       </c>
       <c r="E9" t="n">
-        <v>6.54644601316172e-05</v>
+        <v>6.54644641856525e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>4.805282355432696</v>
+        <v>4.805282331727762</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +558,19 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.408524687575595e-11</v>
+        <v>1.120868332870705e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>1.732907572448718e-12</v>
+        <v>1.379004030363044e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>2.435871619077351</v>
+        <v>2.435871626927782</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875574485116237</v>
+        <v>0.8755744842549666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4059786031795585</v>
+        <v>0.4059786044879637</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +578,19 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>1.494023039340044e-11</v>
+        <v>1.188905757009904e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.588029966577406e-12</v>
+        <v>1.263714095258819e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>4.648053692806222</v>
+        <v>4.648053644879008</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5896774788954997</v>
+        <v>0.5896774852297093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7746756154677037</v>
+        <v>0.7746756074798347</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +598,19 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>1.675605157908079e-11</v>
+        <v>1.333404216785937e-12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.452023517655023e-12</v>
+        <v>1.155483602828159e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>23.53622504196626</v>
+        <v>23.53622482433208</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0006354083521720068</v>
+        <v>0.000635408410550707</v>
       </c>
       <c r="F12" t="n">
-        <v>3.922704173661044</v>
+        <v>3.92270413738868</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +618,19 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>1.438381954639608e-11</v>
+        <v>1.14462798874337e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.409618864762528e-12</v>
+        <v>1.121739051079103e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>9.504899400980637</v>
+        <v>9.504899418937226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1471102579057915</v>
+        <v>0.1471102570307348</v>
       </c>
       <c r="F13" t="n">
-        <v>1.58414990016344</v>
+        <v>1.584149903156204</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +638,19 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.637889172500403e-13</v>
+        <v>3.337511268518758e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.812081672252099e-13</v>
+        <v>7.230915771738728e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>18.75457249863468</v>
+        <v>0.250270936541501</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002135273852589934</v>
+        <v>0.992794064531755</v>
       </c>
       <c r="F14" t="n">
-        <v>3.750914499726936</v>
+        <v>0.06256773413537525</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +658,19 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>3.399419248139384e-12</v>
+        <v>2.705171887612817e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>8.987069406031353e-13</v>
+        <v>7.151682608427629e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>1.991689499358853</v>
+        <v>1.9916895012132</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9204613283530857</v>
+        <v>0.9204613281832519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3319482498931423</v>
+        <v>0.3319482502021999</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +678,19 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>3.198517024296782e-12</v>
+        <v>2.54529897023893e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>9.148015035165402e-13</v>
+        <v>7.279759059656496e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>1.787756949849653</v>
+        <v>1.787756956810472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9381472634929325</v>
+        <v>0.9381472629241441</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2979594916416089</v>
+        <v>0.2979594928017454</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +698,19 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>3.245523986547999e-12</v>
+        <v>2.582705925748134e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>9.058391604169371e-13</v>
+        <v>7.208438987279742e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>2.629636070667227</v>
+        <v>2.629636079508197</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8536865508751496</v>
+        <v>0.8536865498491361</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4382726784445378</v>
+        <v>0.4382726799180329</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +718,19 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>1.238178452756589e-12</v>
+        <v>4.234179521844181e-13</v>
       </c>
       <c r="C18" t="n">
-        <v>5.025290019486934e-13</v>
+        <v>1.087302283751912e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>12.67842362341289</v>
+        <v>2.353587040103133</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04843652750298735</v>
+        <v>0.7983652661476847</v>
       </c>
       <c r="F18" t="n">
-        <v>2.113070603902149</v>
+        <v>0.4707174080206266</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +738,19 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>2.656264586189708e-12</v>
+        <v>3.297769612126131e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>7.69419459588866e-13</v>
+        <v>8.706747889050846e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>4.463632666531746</v>
+        <v>0.8052896686758493</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6141953177956727</v>
+        <v>0.9766947257395692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7439387777552909</v>
+        <v>0.1610579337351699</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +758,19 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>2.744194311416911e-12</v>
+        <v>2.183760446021024e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>8.703844787895776e-13</v>
+        <v>6.926299595630541e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>2.090652518773837</v>
+        <v>2.090652518204655</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9111752398375865</v>
+        <v>0.9111752398922522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3484420864623062</v>
+        <v>0.3484420863674424</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +778,19 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>3.692243931140371e-12</v>
+        <v>2.938194364469382e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>1.331393004373024e-12</v>
+        <v>1.059488888935537e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>1.843622870167726</v>
+        <v>1.84362288425541</v>
       </c>
       <c r="E21" t="n">
-        <v>0.933503987982428</v>
+        <v>0.9335039867919369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3072704783612877</v>
+        <v>0.307270480709235</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +798,19 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>3.086146406977502e-12</v>
+        <v>2.455877278741194e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>1.192350788455991e-12</v>
+        <v>9.488426086981177e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>1.916153446833144</v>
+        <v>1.916153449287082</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9272460818782756</v>
+        <v>0.9272460816622443</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3193589078055241</v>
+        <v>0.3193589082145136</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +818,19 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>6.49142109960999e-13</v>
+        <v>2.411033825491203e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>4.143079904458466e-13</v>
+        <v>1.266377758998763e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>3.698951003248548</v>
+        <v>1.298310239162814</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4482785130578707</v>
+        <v>0.7295343658175575</v>
       </c>
       <c r="F23" t="n">
-        <v>0.924737750812137</v>
+        <v>0.432770079720938</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +838,19 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>4.656791488165304e-13</v>
+        <v>4.153514099450282e-13</v>
       </c>
       <c r="C24" t="n">
-        <v>2.664289090159633e-13</v>
+        <v>2.021862367168825e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>4.329617665075387</v>
+        <v>0.7029238866071286</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5029982691912707</v>
+        <v>0.8725160068289316</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8659235330150775</v>
+        <v>0.2343079622023762</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +858,19 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>3.867595534526026e-13</v>
+        <v>2.839198683918029e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>2.833845074240204e-13</v>
+        <v>1.547903083985586e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>4.291202008260198</v>
+        <v>1.558704689739181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3680280819999823</v>
+        <v>0.6687890688633038</v>
       </c>
       <c r="F25" t="n">
-        <v>1.07280050206505</v>
+        <v>0.5195682299130602</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +878,19 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>1.924390330462333e-12</v>
+        <v>3.322629928629652e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>9.165536207152348e-13</v>
+        <v>1.458773635920167e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>2.976321127794604</v>
+        <v>0.9659875254388649</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7036365951196266</v>
+        <v>0.9149087866235712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5952642255589209</v>
+        <v>0.2414968813597162</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +898,19 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>8.642341714291304e-12</v>
+        <v>6.87735702812074e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>3.347566573786213e-12</v>
+        <v>2.663908835538119e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7195498443216838</v>
+        <v>0.7195498503944581</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9818785287653975</v>
+        <v>0.9818785284214288</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439099688643368</v>
+        <v>0.1439099700788916</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +918,19 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>6.503909958766343e-12</v>
+        <v>5.175647089291313e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>2.950853747268031e-12</v>
+        <v>2.348214797776385e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>1.295889117045189</v>
+        <v>1.295889114280684</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8620726171145285</v>
+        <v>0.8620726175830468</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3239722792612973</v>
+        <v>0.3239722785701711</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +938,19 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>6.220632359323213e-12</v>
+        <v>4.950221945064037e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>2.444193559655733e-12</v>
+        <v>1.945027435185403e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9072577222175924</v>
+        <v>0.9072577234550703</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9696939794575404</v>
+        <v>0.9696939793671935</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1814515444435185</v>
+        <v>0.181451544691014</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +958,19 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>1.056876298189508e-12</v>
+        <v>1.914642658587193e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>5.207013755299123e-13</v>
+        <v>8.670993320374722e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>3.264865353358307</v>
+        <v>1.278137363466669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6592249240311427</v>
+        <v>0.8650737823336739</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6529730706716613</v>
+        <v>0.3195343408666673</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +978,19 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>1.745775792531752e-12</v>
+        <v>4.074409554817647e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>1.045991998453108e-12</v>
+        <v>2.312950343516257e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>2.137467579244229</v>
+        <v>0.5892007368156784</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5443700840692127</v>
+        <v>0.7448291852704039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7124891930814097</v>
+        <v>0.2946003684078392</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +998,19 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>1.440064867994072e-13</v>
+        <v>2.197246966338341e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>1.133718634799028e-13</v>
+        <v>1.097525848262798e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>4.540403472454754</v>
+        <v>0.9150721340566323</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3377835206341313</v>
+        <v>0.8217891168154301</v>
       </c>
       <c r="F32" t="n">
-        <v>1.135100868113688</v>
+        <v>0.3050240446855441</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1018,19 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>4.865990535445826e-13</v>
+        <v>1.72040091041644e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>2.750303119158939e-13</v>
+        <v>7.276016119351153e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>5.485117507263793</v>
+        <v>1.793840294792949</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4832572786033255</v>
+        <v>0.8768718254553495</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9141862512106322</v>
+        <v>0.3587680589585898</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1038,19 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>3.807980052403615e-12</v>
+        <v>3.030294236664453e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>1.685096658207514e-12</v>
+        <v>1.340957310106198e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>2.277923035607416</v>
+        <v>2.277923039920679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8095038640371108</v>
+        <v>0.8095038634057776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4555846071214831</v>
+        <v>0.4555846079841357</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1058,19 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>4.398207979938926e-12</v>
+        <v>3.49998270177577e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>1.641158448510121e-12</v>
+        <v>1.305992396667778e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>1.433300306996986</v>
+        <v>1.433300308607378</v>
       </c>
       <c r="E35" t="n">
-        <v>0.963801443337561</v>
+        <v>0.9638014432365779</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2388833844994976</v>
+        <v>0.2388833847678963</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1078,19 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>8.162555002615124e-13</v>
+        <v>2.502349173606475e-13</v>
       </c>
       <c r="C36" t="n">
-        <v>4.468188527588899e-13</v>
+        <v>1.067518177868664e-13</v>
       </c>
       <c r="D36" t="n">
-        <v>5.27813060991349</v>
+        <v>1.889899236710243</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5086672393938831</v>
+        <v>0.8641602106161345</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8796884349855817</v>
+        <v>0.3779798473420485</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1098,19 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.000031059466429e-12</v>
+        <v>1.591574147118764e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>8.150262493943189e-13</v>
+        <v>6.485772811071781e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.593529699674021</v>
+        <v>2.593529699786013</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8578568596933388</v>
+        <v>0.8578568596804661</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4322549499456701</v>
+        <v>0.4322549499643355</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1118,19 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>4.078766183010887e-12</v>
+        <v>3.245778997893433e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>1.652768071903947e-12</v>
+        <v>1.315231043237723e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>2.512718973399131</v>
+        <v>2.512718964554975</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7745783620664279</v>
+        <v>0.7745783634000447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5025437946798261</v>
+        <v>0.502543792910995</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1138,19 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.381745237088468e-13</v>
+        <v>3.602057604259857e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>1.832483227206967e-13</v>
+        <v>1.642434624783025e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>4.464531314660075</v>
+        <v>0.1132979063856723</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3467738904049207</v>
+        <v>0.9901952144247228</v>
       </c>
       <c r="F39" t="n">
-        <v>1.116132828665019</v>
+        <v>0.0377659687952241</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1158,19 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>2.172315827570239e-12</v>
+        <v>1.72867400994655e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>9.067458647859039e-13</v>
+        <v>7.215654332784574e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.520210236716445</v>
+        <v>2.520210244632765</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7734483410097287</v>
+        <v>0.7734483398151615</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5040420473432891</v>
+        <v>0.5040420489265529</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1178,19 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>2.280373148745149e-12</v>
+        <v>1.814663294734404e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>8.546441402411141e-13</v>
+        <v>6.801041973535496e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>1.496020608397634</v>
+        <v>1.496020609065624</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9597584590688339</v>
+        <v>0.9597584590246089</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2493367680662724</v>
+        <v>0.249336768177604</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1198,19 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>4.387925978466139e-13</v>
+        <v>3.211766695820382e-13</v>
       </c>
       <c r="C42" t="n">
-        <v>2.699498595925208e-13</v>
+        <v>1.134417122171434e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>7.079811846630191</v>
+        <v>0.4754435238241914</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3135293124957051</v>
+        <v>0.992994877129788</v>
       </c>
       <c r="F42" t="n">
-        <v>1.179968641105032</v>
+        <v>0.09508870476483829</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1218,19 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.981638615337566e-12</v>
+        <v>3.9642620525047e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>1.217715622764468e-12</v>
+        <v>9.690273026655526e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>2.72763697915424</v>
+        <v>2.727636973916271</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8421721514456543</v>
+        <v>0.8421721520684093</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4546061631923734</v>
+        <v>0.4546061623193784</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1238,19 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>4.262120337403221e-12</v>
+        <v>3.391687598938595e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>1.148725517383e-12</v>
+        <v>9.141267211078035e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>1.128365710412486</v>
+        <v>1.128365705825304</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9802750659153848</v>
+        <v>0.9802750661230216</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1880609517354144</v>
+        <v>0.1880609509708841</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1258,19 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>3.363475975304261e-12</v>
+        <v>2.676569139007634e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>8.772336223671507e-13</v>
+        <v>6.980803365700563e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>3.354729353460634</v>
+        <v>3.354729349982605</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7631861551614825</v>
+        <v>0.7631861556186317</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5591215589101056</v>
+        <v>0.5591215583304342</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1278,19 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>4.202621057006128e-12</v>
+        <v>3.344339575465165e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>1.004245457276049e-12</v>
+        <v>7.991531435553372e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>3.086193913218513</v>
+        <v>3.086193917850846</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7979534575281038</v>
+        <v>0.7979534569387612</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5143656522030854</v>
+        <v>0.514365652975141</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1298,19 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>3.782226018397402e-12</v>
+        <v>3.009799834063308e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>1.044304805651131e-12</v>
+        <v>8.310313600752928e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>1.276190527851196</v>
+        <v>1.276190523981461</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9729543390288948</v>
+        <v>0.9729543392369944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2126984213085327</v>
+        <v>0.2126984206635768</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1318,19 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1.595153634932273e-12</v>
+        <v>2.005254873188627e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>5.525484154284648e-13</v>
+        <v>7.341600766661799e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>3.624084567825103</v>
+        <v>2.036431515963355</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7273942422270145</v>
+        <v>0.7290580467111094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6040140946375172</v>
+        <v>0.5091078789908389</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1338,19 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>2.273074831993903e-12</v>
+        <v>1.808855482662627e-13</v>
       </c>
       <c r="C49" t="n">
-        <v>8.681190489578726e-13</v>
+        <v>6.908271909611217e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.629314279286051</v>
+        <v>0.6293142727003946</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9866217674558183</v>
+        <v>0.9866217677749981</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1258628558572102</v>
+        <v>0.1258628545400789</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1358,19 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>3.512015991236479e-12</v>
+        <v>2.794773529210031e-13</v>
       </c>
       <c r="C50" t="n">
-        <v>1.192827649628817e-12</v>
+        <v>9.492220845212672e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>1.389781408843834</v>
+        <v>1.389781404683755</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9664770792950701</v>
+        <v>0.9664770795457315</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2316302348073056</v>
+        <v>0.2316302341139591</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1378,19 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.211374973084892e-12</v>
+        <v>1.759756287430485e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>9.221411228344527e-13</v>
+        <v>7.338165886986856e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>1.633792389658237</v>
+        <v>1.633792394933908</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8971329375739276</v>
+        <v>0.8971329369266535</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3267584779316475</v>
+        <v>0.3267584789867816</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +1398,19 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>4.456564462511654e-13</v>
+        <v>1.863855750263645e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>2.687285983082894e-13</v>
+        <v>8.240242750560401e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>5.865131834266667</v>
+        <v>2.268449913925948</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4384665971059905</v>
+        <v>0.8108894003768978</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9775219723777778</v>
+        <v>0.4536899827851896</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +1418,19 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>4.726419731137978e-12</v>
+        <v>3.761165315722005e-13</v>
       </c>
       <c r="C53" t="n">
-        <v>2.064081612503633e-12</v>
+        <v>1.642543958199372e-13</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9104720715557477</v>
+        <v>0.9104720712898592</v>
       </c>
       <c r="E53" t="n">
-        <v>0.923053646383848</v>
+        <v>0.9230536464222364</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2276180178889369</v>
+        <v>0.2276180178224648</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +1438,19 @@
         <v>4.4601</v>
       </c>
       <c r="B54" t="n">
-        <v>8.303190229775913e-13</v>
+        <v>3.463123940006488e-13</v>
       </c>
       <c r="C54" t="n">
-        <v>5.363044633907686e-13</v>
+        <v>1.7704189378945e-13</v>
       </c>
       <c r="D54" t="n">
-        <v>3.756851008752871</v>
+        <v>1.096733242184443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4399113456224837</v>
+        <v>0.7778627499564323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9392127521882178</v>
+        <v>0.3655777473948142</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +1458,19 @@
         <v>4.47</v>
       </c>
       <c r="B55" t="n">
-        <v>5.328886060026503e-12</v>
+        <v>4.240592789002704e-13</v>
       </c>
       <c r="C55" t="n">
-        <v>2.68608774233701e-12</v>
+        <v>2.137520706360787e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>2.218051068305658</v>
+        <v>2.218051069549914</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6957258948222393</v>
+        <v>0.6957258945946364</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5545127670764144</v>
+        <v>0.5545127673874785</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +1478,19 @@
         <v>4.478</v>
       </c>
       <c r="B56" t="n">
-        <v>6.570785270569851e-13</v>
+        <v>2.801991154465551e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>4.043801492192492e-13</v>
+        <v>1.279006303199116e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>4.744305544455897</v>
+        <v>1.354432878691739</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4478754594048164</v>
+        <v>0.8520748521135761</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9488611088911794</v>
+        <v>0.3386082196729348</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +1498,19 @@
         <v>4.4861</v>
       </c>
       <c r="B57" t="n">
-        <v>3.969448640861182e-12</v>
+        <v>3.158786858849517e-13</v>
       </c>
       <c r="C57" t="n">
-        <v>1.431544477385771e-12</v>
+        <v>1.139186897624784e-13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3983369805375519</v>
+        <v>0.3983369825932401</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9953752749344398</v>
+        <v>0.9953752748781247</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07966739610751038</v>
+        <v>0.07966739651864803</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +1518,19 @@
         <v>4.4882</v>
       </c>
       <c r="B58" t="n">
-        <v>1.966607230870487e-12</v>
+        <v>1.56497630906541e-13</v>
       </c>
       <c r="C58" t="n">
-        <v>7.487496832768037e-13</v>
+        <v>5.958360652621973e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>1.716768807439995</v>
+        <v>1.716768801186144</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9438193574609375</v>
+        <v>0.9438193579492069</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2861281345733326</v>
+        <v>0.286128133531024</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +1538,19 @@
         <v>4.4901</v>
       </c>
       <c r="B59" t="n">
-        <v>8.031492372045844e-13</v>
+        <v>3.451372789887625e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>4.871799074541e-13</v>
+        <v>1.524623322285535e-13</v>
       </c>
       <c r="D59" t="n">
-        <v>4.666838705783964</v>
+        <v>1.029262072262187</v>
       </c>
       <c r="E59" t="n">
-        <v>0.457875862408989</v>
+        <v>0.9053269160216647</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9333677411567928</v>
+        <v>0.2573155180655468</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +1558,19 @@
         <v>4.4922</v>
       </c>
       <c r="B60" t="n">
-        <v>2.276817156214534e-12</v>
+        <v>1.811833521149447e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>8.541759027848161e-13</v>
+        <v>6.797315846478913e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>1.510423907213747</v>
+        <v>1.510423910702087</v>
       </c>
       <c r="E60" t="n">
-        <v>0.958799131149179</v>
+        <v>0.9587991309154502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2517373178689578</v>
+        <v>0.2517373184503478</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +1578,19 @@
         <v>4.495</v>
       </c>
       <c r="B61" t="n">
-        <v>7.020824480983831e-13</v>
+        <v>2.925385046781156e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>3.731800780089998e-13</v>
+        <v>1.029875310149089e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>6.252821716554632</v>
+        <v>0.4929574802072011</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3954730571574925</v>
+        <v>0.9923788922186217</v>
       </c>
       <c r="F61" t="n">
-        <v>1.042136952759105</v>
+        <v>0.09859149604144021</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +1598,19 @@
         <v>4.5</v>
       </c>
       <c r="B62" t="n">
-        <v>1.558634970967218e-12</v>
+        <v>1.812357265056766e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>6.15741875245226e-13</v>
+        <v>7.185753988595994e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>2.764945885470319</v>
+        <v>1.580461601288071</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8377173248355858</v>
+        <v>0.9036019605169221</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4608243142450532</v>
+        <v>0.3160923202576142</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +1618,19 @@
         <v>4.5102</v>
       </c>
       <c r="B63" t="n">
-        <v>2.077581495446912e-12</v>
+        <v>1.65328682801161e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>7.706453462902053e-13</v>
+        <v>6.132600830127425e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>1.667010533573204</v>
+        <v>1.667010527501939</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8930293775442013</v>
+        <v>0.8930293782992741</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3334021067146409</v>
+        <v>0.3334021055003878</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +1638,19 @@
         <v>4.5122</v>
       </c>
       <c r="B64" t="n">
-        <v>3.459274505308934e-12</v>
+        <v>2.752803185469488e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>1.227698468772005e-12</v>
+        <v>9.769713996199026e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9723501841436861</v>
+        <v>0.9723501830945275</v>
       </c>
       <c r="E64" t="n">
-        <v>0.98663877480316</v>
+        <v>0.9866387748412861</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1620583640239477</v>
+        <v>0.1620583638490879</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +1658,19 @@
         <v>4.5151</v>
       </c>
       <c r="B65" t="n">
-        <v>2.472907678630087e-12</v>
+        <v>1.967877405881059e-13</v>
       </c>
       <c r="C65" t="n">
-        <v>1.107302785973247e-12</v>
+        <v>8.811635615718093e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>2.189142529279271</v>
+        <v>2.18914252537623</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8224027070185623</v>
+        <v>0.8224027075812104</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4378285058558542</v>
+        <v>0.4378285050752459</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +1678,19 @@
         <v>4.5201</v>
       </c>
       <c r="B66" t="n">
-        <v>2.32438004675893e-12</v>
+        <v>1.849682860600137e-13</v>
       </c>
       <c r="C66" t="n">
-        <v>1.227977704777953e-12</v>
+        <v>9.771936051446679e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>4.592674647839427</v>
+        <v>4.592674666053363</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4675804430885786</v>
+        <v>0.4675804406897208</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9185349295678854</v>
+        <v>0.9185349332106727</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +1698,19 @@
         <v>4.5252</v>
       </c>
       <c r="B67" t="n">
-        <v>1.982797042675406e-12</v>
+        <v>1.577859748195739e-13</v>
       </c>
       <c r="C67" t="n">
-        <v>1.404348002953246e-12</v>
+        <v>1.117544635890743e-13</v>
       </c>
       <c r="D67" t="n">
-        <v>4.160388389381948</v>
+        <v>4.160388387542681</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3847345936851132</v>
+        <v>0.3847345939240605</v>
       </c>
       <c r="F67" t="n">
-        <v>1.040097097345487</v>
+        <v>1.04009709688567</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +1718,19 @@
         <v>4.5294</v>
       </c>
       <c r="B68" t="n">
-        <v>9.60310478525521e-13</v>
+        <v>1.863975814982748e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>4.677587017334586e-13</v>
+        <v>8.055817633643329e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>5.601742243402428</v>
+        <v>3.232008849449477</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3469184013889736</v>
+        <v>0.5197765352253044</v>
       </c>
       <c r="F68" t="n">
-        <v>1.120348448680486</v>
+        <v>0.8080022123623691</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +1738,19 @@
         <v>4.5351</v>
       </c>
       <c r="B69" t="n">
-        <v>7.830723735735068e-12</v>
+        <v>6.231491951635594e-13</v>
       </c>
       <c r="C69" t="n">
-        <v>4.500730022867891e-12</v>
+        <v>3.581567154629997e-13</v>
       </c>
       <c r="D69" t="n">
-        <v>1.895899471026097</v>
+        <v>1.895899472904651</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5942916628824846</v>
+        <v>0.5942916624825842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6319664903420324</v>
+        <v>0.6319664909682169</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +1758,19 @@
         <v>4.5402</v>
       </c>
       <c r="B70" t="n">
-        <v>1.25857220695548e-13</v>
+        <v>3.78384644120722e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>7.831975513032331e-14</v>
+        <v>2.366799811693601e-13</v>
       </c>
       <c r="D70" t="n">
-        <v>6.033043376262975</v>
+        <v>3.597945574593003</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4194987433716771</v>
+        <v>0.4631425915937034</v>
       </c>
       <c r="F70" t="n">
-        <v>1.005507229377163</v>
+        <v>0.8994863936482507</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +1778,19 @@
         <v>4.5498</v>
       </c>
       <c r="B71" t="n">
-        <v>2.95456800671964e-12</v>
+        <v>2.351170507250155e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>1.559560923189896e-12</v>
+        <v>1.241059146944284e-13</v>
       </c>
       <c r="D71" t="n">
-        <v>2.564764886313862</v>
+        <v>2.564764896894122</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6330773841030513</v>
+        <v>0.6330773822213429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6411912215784654</v>
+        <v>0.6411912242235306</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +1798,19 @@
         <v>4.5602</v>
       </c>
       <c r="B72" t="n">
-        <v>1.327399813444474e-13</v>
+        <v>4.128051511786724e-13</v>
       </c>
       <c r="C72" t="n">
-        <v>1.117954381556475e-13</v>
+        <v>2.157587177577119e-13</v>
       </c>
       <c r="D72" t="n">
-        <v>5.974822434745334</v>
+        <v>2.493235724566244</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3086765205672019</v>
+        <v>0.6458474495574436</v>
       </c>
       <c r="F72" t="n">
-        <v>1.194964486949067</v>
+        <v>0.6233089311415611</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +1818,19 @@
         <v>4.5701</v>
       </c>
       <c r="B73" t="n">
-        <v>2.284995470684596e-11</v>
+        <v>1.818341619083762e-12</v>
       </c>
       <c r="C73" t="n">
-        <v>1.176720778893365e-11</v>
+        <v>9.364046423170257e-13</v>
       </c>
       <c r="D73" t="n">
-        <v>1.152360760134856</v>
+        <v>1.152360763721473</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7644513441441914</v>
+        <v>0.7644513432809003</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3841202533782854</v>
+        <v>0.3841202545738243</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +1838,19 @@
         <v>4.58</v>
       </c>
       <c r="B74" t="n">
-        <v>1.096574275051238e-13</v>
+        <v>1.681201406821329e-12</v>
       </c>
       <c r="C74" t="n">
-        <v>9.70190553842343e-14</v>
+        <v>7.876888471570041e-13</v>
       </c>
       <c r="D74" t="n">
-        <v>4.876342891225439</v>
+        <v>0.3676393981138663</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3002224220912175</v>
+        <v>0.9468432370744643</v>
       </c>
       <c r="F74" t="n">
-        <v>1.21908572280636</v>
+        <v>0.1225464660379554</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +1858,19 @@
         <v>4.5901</v>
       </c>
       <c r="B75" t="n">
-        <v>4.377466127034847e-13</v>
+        <v>4.758814517275271e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>3.279350073019162e-13</v>
+        <v>2.310874544765783e-13</v>
       </c>
       <c r="D75" t="n">
-        <v>4.372000722942073</v>
+        <v>0.6823059381108405</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3579957956921339</v>
+        <v>0.8773576678354479</v>
       </c>
       <c r="F75" t="n">
-        <v>1.093000180735518</v>
+        <v>0.2274353127036135</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +1878,19 @@
         <v>4.6003</v>
       </c>
       <c r="B76" t="n">
-        <v>2.996467700516185e-12</v>
+        <v>2.384513228828083e-13</v>
       </c>
       <c r="C76" t="n">
-        <v>1.369857685584999e-12</v>
+        <v>1.09009810894681e-13</v>
       </c>
       <c r="D76" t="n">
-        <v>2.59976567812763</v>
+        <v>2.599765691840585</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7614008698880339</v>
+        <v>0.7614008678045544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5199531356255259</v>
+        <v>0.519953138368117</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +1898,19 @@
         <v>4.61</v>
       </c>
       <c r="B77" t="n">
-        <v>1.273762771940236e-13</v>
+        <v>9.822349788401961e-13</v>
       </c>
       <c r="C77" t="n">
-        <v>1.102947872680655e-13</v>
+        <v>4.343448516244734e-13</v>
       </c>
       <c r="D77" t="n">
-        <v>6.050887842756288</v>
+        <v>1.03983778322424</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3012987618863666</v>
+        <v>0.903696306689622</v>
       </c>
       <c r="F77" t="n">
-        <v>1.210177568551258</v>
+        <v>0.2599594458060601</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +1918,19 @@
         <v>4.6202</v>
       </c>
       <c r="B78" t="n">
-        <v>2.117601716225219e-12</v>
+        <v>1.685133903097592e-13</v>
       </c>
       <c r="C78" t="n">
-        <v>1.224926984573633e-12</v>
+        <v>9.747659266459926e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>4.396012881285404</v>
+        <v>4.396012899399571</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4939159199485113</v>
+        <v>0.4939159174835303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8792025762570808</v>
+        <v>0.8792025798799141</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +1938,19 @@
         <v>4.6299</v>
       </c>
       <c r="B79" t="n">
-        <v>5.307368845294043e-12</v>
+        <v>4.223469933005614e-13</v>
       </c>
       <c r="C79" t="n">
-        <v>2.395797052669418e-12</v>
+        <v>1.906514719099849e-13</v>
       </c>
       <c r="D79" t="n">
-        <v>1.246366719317451</v>
+        <v>1.246366721312389</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8704072253362031</v>
+        <v>0.8704072250028764</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3115916798293628</v>
+        <v>0.3115916803280972</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +1958,19 @@
         <v>4.6352</v>
       </c>
       <c r="B80" t="n">
-        <v>7.859651457893415e-12</v>
+        <v>6.254511904935533e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>3.227346054538388e-12</v>
+        <v>2.568240387880638e-13</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2230157594480665</v>
+        <v>0.2230157626199152</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9942263956295566</v>
+        <v>0.9942263954713733</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05575393986201663</v>
+        <v>0.0557539406549788</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +1978,19 @@
         <v>4.64</v>
       </c>
       <c r="B81" t="n">
-        <v>2.520713814618846e-13</v>
+        <v>3.319686660244146e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>1.861109767203674e-13</v>
+        <v>1.398869772098269e-13</v>
       </c>
       <c r="D81" t="n">
-        <v>6.780946315169092</v>
+        <v>1.752914049704458</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3415811966608386</v>
+        <v>0.8821672110651854</v>
       </c>
       <c r="F81" t="n">
-        <v>1.130157719194849</v>
+        <v>0.3505828099408915</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +1998,19 @@
         <v>4.65</v>
       </c>
       <c r="B82" t="n">
-        <v>3.252657438340059e-12</v>
+        <v>2.58838254592593e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>1.469094733227363e-12</v>
+        <v>1.169068442804463e-13</v>
       </c>
       <c r="D82" t="n">
-        <v>2.482573125994599</v>
+        <v>2.482573124252011</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7791172756112636</v>
+        <v>0.7791172758732343</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4965146251989198</v>
+        <v>0.4965146248504022</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +2018,19 @@
         <v>4.6701</v>
       </c>
       <c r="B83" t="n">
-        <v>1.095751396044527e-12</v>
+        <v>4.460562149115085e-13</v>
       </c>
       <c r="C83" t="n">
-        <v>6.097741593990454e-13</v>
+        <v>1.718731714202489e-13</v>
       </c>
       <c r="D83" t="n">
-        <v>5.242927359292592</v>
+        <v>0.5058978343669519</v>
       </c>
       <c r="E83" t="n">
-        <v>0.513054677134545</v>
+        <v>0.9919057460938426</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8738212265487654</v>
+        <v>0.1011795668733904</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +2038,19 @@
         <v>4.6802</v>
       </c>
       <c r="B84" t="n">
-        <v>2.765351326844449e-12</v>
+        <v>2.200596664037678e-13</v>
       </c>
       <c r="C84" t="n">
-        <v>1.012181993560673e-12</v>
+        <v>8.054688370715396e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>1.151182068685481</v>
+        <v>1.151182073382999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9792272974457361</v>
+        <v>0.9792272972269295</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1918636781142468</v>
+        <v>0.1918636788971665</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +2058,19 @@
         <v>4.6899</v>
       </c>
       <c r="B85" t="n">
-        <v>2.153861063825601e-12</v>
+        <v>1.713988175533072e-13</v>
       </c>
       <c r="C85" t="n">
-        <v>9.304306385992621e-13</v>
+        <v>7.404131751890802e-14</v>
       </c>
       <c r="D85" t="n">
-        <v>2.373420534163493</v>
+        <v>2.373420539292992</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7954256380713542</v>
+        <v>0.795425637310075</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4746841068326986</v>
+        <v>0.4746841078585984</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +2078,19 @@
         <v>4.71</v>
       </c>
       <c r="B86" t="n">
-        <v>7.369341796454501e-12</v>
+        <v>5.864335870288628e-13</v>
       </c>
       <c r="C86" t="n">
-        <v>1.262340681768297e-12</v>
+        <v>1.004538797318496e-13</v>
       </c>
       <c r="D86" t="n">
-        <v>2.203873535018063</v>
+        <v>2.203873528334135</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9000259327999248</v>
+        <v>0.9000259334740183</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3673122558363439</v>
+        <v>0.3673122547223558</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +2098,19 @@
         <v>4.73</v>
       </c>
       <c r="B87" t="n">
-        <v>1.258086072820854e-11</v>
+        <v>1.001153087087654e-12</v>
       </c>
       <c r="C87" t="n">
-        <v>2.046199388815997e-12</v>
+        <v>1.628313735212202e-13</v>
       </c>
       <c r="D87" t="n">
-        <v>2.116945931986461</v>
+        <v>2.116945943337292</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9086348623464413</v>
+        <v>0.908634861243282</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3528243219977436</v>
+        <v>0.3528243238895487</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +2118,19 @@
         <v>4.75</v>
       </c>
       <c r="B88" t="n">
-        <v>5.621269324609922e-12</v>
+        <v>4.473264001334177e-13</v>
       </c>
       <c r="C88" t="n">
-        <v>1.611038398616824e-12</v>
+        <v>1.282023622909138e-13</v>
       </c>
       <c r="D88" t="n">
-        <v>4.21308237828229</v>
+        <v>4.213082401403477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6478654041299123</v>
+        <v>0.6478654010093645</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7021803963803817</v>
+        <v>0.7021804002339128</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +2138,19 @@
         <v>4.7552</v>
       </c>
       <c r="B89" t="n">
-        <v>1.710164495257478e-12</v>
+        <v>2.892738019400135e-13</v>
       </c>
       <c r="C89" t="n">
-        <v>7.741435238896861e-13</v>
+        <v>1.189172586925746e-13</v>
       </c>
       <c r="D89" t="n">
-        <v>3.735238766272339</v>
+        <v>1.467249431329385</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7124538952013022</v>
+        <v>0.9168179957135744</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6225397943787232</v>
+        <v>0.2934498862658769</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +2158,19 @@
         <v>4.7589</v>
       </c>
       <c r="B90" t="n">
-        <v>6.031956468543348e-13</v>
+        <v>4.103939249841922e-13</v>
       </c>
       <c r="C90" t="n">
-        <v>4.137593803973739e-13</v>
+        <v>1.924615984960658e-13</v>
       </c>
       <c r="D90" t="n">
-        <v>4.02854395162696</v>
+        <v>0.376195075800068</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4021566288732071</v>
+        <v>0.9451149217177569</v>
       </c>
       <c r="F90" t="n">
-        <v>1.00713598790674</v>
+        <v>0.1253983586000227</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +2178,19 @@
         <v>4.77</v>
       </c>
       <c r="B91" t="n">
-        <v>2.96036964830515e-12</v>
+        <v>2.355787313063294e-13</v>
       </c>
       <c r="C91" t="n">
-        <v>1.320338657819487e-12</v>
+        <v>1.050692118866534e-13</v>
       </c>
       <c r="D91" t="n">
-        <v>3.588241983666185</v>
+        <v>3.588241985006714</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7321948717530176</v>
+        <v>0.7321948715736504</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5980403306110308</v>
+        <v>0.5980403308344523</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +2198,19 @@
         <v>4.775</v>
       </c>
       <c r="B92" t="n">
-        <v>5.000186744551301e-12</v>
+        <v>3.979022184767346e-13</v>
       </c>
       <c r="C92" t="n">
-        <v>1.838972529051075e-12</v>
+        <v>1.463407841179141e-13</v>
       </c>
       <c r="D92" t="n">
-        <v>1.222363174982033</v>
+        <v>1.222363182517495</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9757657204158183</v>
+        <v>0.9757657200339114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2037271958303389</v>
+        <v>0.2037271970862492</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +2218,19 @@
         <v>4.7802</v>
       </c>
       <c r="B93" t="n">
-        <v>7.260764216335342e-12</v>
+        <v>5.777932579873516e-13</v>
       </c>
       <c r="C93" t="n">
-        <v>2.845032110743523e-12</v>
+        <v>2.264004618478534e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8714767472861623</v>
+        <v>0.8714767506614406</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9722521395161279</v>
+        <v>0.9722521392799477</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1742953494572325</v>
+        <v>0.1742953501322881</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +2238,19 @@
         <v>4.7901</v>
       </c>
       <c r="B94" t="n">
-        <v>1.213531886976968e-12</v>
+        <v>6.163948900482153e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>6.656648461761076e-13</v>
+        <v>3.456112659120084e-13</v>
       </c>
       <c r="D94" t="n">
-        <v>2.830380920183912</v>
+        <v>0.5114643736374247</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5865998896043291</v>
+        <v>0.7743493219803981</v>
       </c>
       <c r="F94" t="n">
-        <v>0.707595230045978</v>
+        <v>0.2557321868187123</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +2258,19 @@
         <v>4.7999</v>
       </c>
       <c r="B95" t="n">
-        <v>1.807674535455305e-12</v>
+        <v>3.211101495189475e-13</v>
       </c>
       <c r="C95" t="n">
-        <v>8.749930089448826e-13</v>
+        <v>1.427326544344433e-13</v>
       </c>
       <c r="D95" t="n">
-        <v>3.116547556678325</v>
+        <v>1.092554323751751</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6820231443363827</v>
+        <v>0.8954517396405482</v>
       </c>
       <c r="F95" t="n">
-        <v>0.623309511335665</v>
+        <v>0.2731385809379377</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +2278,19 @@
         <v>4.81</v>
       </c>
       <c r="B96" t="n">
-        <v>3.963536802189688e-12</v>
+        <v>3.15408236865714e-13</v>
       </c>
       <c r="C96" t="n">
-        <v>1.592973438637384e-12</v>
+        <v>1.267647985091504e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>1.193787619622168</v>
+        <v>1.193787618170491</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9454719689086281</v>
+        <v>0.9454719690472467</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2387575239244336</v>
+        <v>0.2387575236340981</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +2298,19 @@
         <v>4.8122</v>
       </c>
       <c r="B97" t="n">
-        <v>3.471648534334009e-12</v>
+        <v>2.762650122120166e-13</v>
       </c>
       <c r="C97" t="n">
-        <v>1.314814653945704e-12</v>
+        <v>1.046296256210813e-13</v>
       </c>
       <c r="D97" t="n">
-        <v>1.643624569789834</v>
+        <v>1.643624574696205</v>
       </c>
       <c r="E97" t="n">
-        <v>0.949390032977112</v>
+        <v>0.9493900326129144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2739374282983056</v>
+        <v>0.2739374291160341</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +2318,19 @@
         <v>4.8153</v>
       </c>
       <c r="B98" t="n">
-        <v>3.988990230353832e-12</v>
+        <v>3.174337566330886e-13</v>
       </c>
       <c r="C98" t="n">
-        <v>1.43946310462994e-12</v>
+        <v>1.145488342131976e-13</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7361005028775517</v>
+        <v>0.7361004995233513</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9936785878787554</v>
+        <v>0.9936785879573696</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1226834171462586</v>
+        <v>0.1226834165872252</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +2338,19 @@
         <v>4.8201</v>
       </c>
       <c r="B99" t="n">
-        <v>8.820198773631109e-13</v>
+        <v>3.529194644835354e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>4.713242190534459e-13</v>
+        <v>1.277687565684684e-13</v>
       </c>
       <c r="D99" t="n">
-        <v>5.977659718290853</v>
+        <v>0.6192972152898087</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4256973128704898</v>
+        <v>0.9871026716599697</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9962766197151421</v>
+        <v>0.1238594430579617</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +2358,19 @@
         <v>4.8299</v>
       </c>
       <c r="B100" t="n">
-        <v>5.558140910825494e-12</v>
+        <v>4.423027998061099e-13</v>
       </c>
       <c r="C100" t="n">
-        <v>1.290905221641349e-12</v>
+        <v>1.027269735019961e-13</v>
       </c>
       <c r="D100" t="n">
-        <v>1.093789591037075</v>
+        <v>1.09378959196111</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9818057274180654</v>
+        <v>0.981805727378078</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1822982651728459</v>
+        <v>0.1822982653268516</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +2378,19 @@
         <v>4.85</v>
       </c>
       <c r="B101" t="n">
-        <v>6.08716154777835e-12</v>
+        <v>4.844009251666808e-13</v>
       </c>
       <c r="C101" t="n">
-        <v>1.086119855883198e-12</v>
+        <v>8.643067196191691e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>1.33122854729252</v>
+        <v>1.331228550759632</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9699078354876721</v>
+        <v>0.9699078352903024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2218714245487534</v>
+        <v>0.2218714251266053</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +2398,19 @@
         <v>4.8663</v>
       </c>
       <c r="B102" t="n">
-        <v>1.384672484188473e-11</v>
+        <v>1.101887351918495e-12</v>
       </c>
       <c r="C102" t="n">
-        <v>1.631687161307614e-12</v>
+        <v>1.298455386835352e-13</v>
       </c>
       <c r="D102" t="n">
-        <v>6.161463510857873</v>
+        <v>6.161463522754022</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4053482154788953</v>
+        <v>0.4053482141825839</v>
       </c>
       <c r="F102" t="n">
-        <v>1.026910585142979</v>
+        <v>1.02691058712567</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +2418,19 @@
         <v>4.8899</v>
       </c>
       <c r="B103" t="n">
-        <v>1.055362854949223e-11</v>
+        <v>8.398310764206001e-13</v>
       </c>
       <c r="C103" t="n">
-        <v>1.190815027581051e-12</v>
+        <v>9.476204900424818e-14</v>
       </c>
       <c r="D103" t="n">
-        <v>2.9604325529966</v>
+        <v>2.960432599391412</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8137963418280255</v>
+        <v>0.8137963360442688</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4934054254994334</v>
+        <v>0.493405433231902</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +2438,19 @@
         <v>4.8999</v>
       </c>
       <c r="B104" t="n">
-        <v>2.873389826817412e-12</v>
+        <v>2.286570978505864e-13</v>
       </c>
       <c r="C104" t="n">
-        <v>1.110714965091869e-12</v>
+        <v>8.838788861135263e-14</v>
       </c>
       <c r="D104" t="n">
-        <v>5.06734257076418</v>
+        <v>5.067342561796911</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4077170621542543</v>
+        <v>0.4077170632338464</v>
       </c>
       <c r="F104" t="n">
-        <v>1.013468514152836</v>
+        <v>1.013468512359382</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +2458,19 @@
         <v>4.9101</v>
       </c>
       <c r="B105" t="n">
-        <v>6.655199085853277e-12</v>
+        <v>5.296039158470515e-13</v>
       </c>
       <c r="C105" t="n">
-        <v>1.944070790080003e-12</v>
+        <v>1.547042379249481e-13</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9033433739984622</v>
+        <v>0.9033433757919827</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9699791165988478</v>
+        <v>0.9699791164684964</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1806686747996925</v>
+        <v>0.1806686751583965</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +2478,19 @@
         <v>4.92</v>
       </c>
       <c r="B106" t="n">
-        <v>2.609917097137197e-12</v>
+        <v>2.076906030350862e-13</v>
       </c>
       <c r="C106" t="n">
-        <v>1.192671483183904e-12</v>
+        <v>9.490978090682047e-14</v>
       </c>
       <c r="D106" t="n">
-        <v>2.315244097987935</v>
+        <v>2.315244100117658</v>
       </c>
       <c r="E106" t="n">
-        <v>0.804025349402415</v>
+        <v>0.8040253490889001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4630488195975869</v>
+        <v>0.4630488200235315</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +2498,19 @@
         <v>4.9262</v>
       </c>
       <c r="B107" t="n">
-        <v>3.203701852983067e-12</v>
+        <v>2.549424928486168e-13</v>
       </c>
       <c r="C107" t="n">
-        <v>1.017244554345077e-12</v>
+        <v>8.094974949015622e-14</v>
       </c>
       <c r="D107" t="n">
-        <v>2.880811138816807</v>
+        <v>2.880811135795575</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8236507967447051</v>
+        <v>0.8236507971158415</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4801351898028011</v>
+        <v>0.4801351892992625</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +2518,19 @@
         <v>4.9302</v>
       </c>
       <c r="B108" t="n">
-        <v>5.355170484795519e-12</v>
+        <v>4.261509268785667e-13</v>
       </c>
       <c r="C108" t="n">
-        <v>1.557305641748263e-12</v>
+        <v>1.23926445265381e-13</v>
       </c>
       <c r="D108" t="n">
-        <v>1.511850354630851</v>
+        <v>1.511850362399</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9587034989215309</v>
+        <v>0.958703498400431</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2519750591051418</v>
+        <v>0.2519750603998334</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +2538,19 @@
         <v>4.9369</v>
       </c>
       <c r="B109" t="n">
-        <v>5.196112060895938e-12</v>
+        <v>4.134934597983045e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>1.252190771962039e-12</v>
+        <v>9.964617557007019e-14</v>
       </c>
       <c r="D109" t="n">
-        <v>9.392661439818051</v>
+        <v>9.392661496819812</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1526694098569438</v>
+        <v>0.1526694069877815</v>
       </c>
       <c r="F109" t="n">
-        <v>1.565443573303009</v>
+        <v>1.565443582803302</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +2558,19 @@
         <v>4.9467</v>
       </c>
       <c r="B110" t="n">
-        <v>7.88858529649869e-12</v>
+        <v>6.277536719993285e-13</v>
       </c>
       <c r="C110" t="n">
-        <v>1.456836123180471e-12</v>
+        <v>1.159313350712913e-13</v>
       </c>
       <c r="D110" t="n">
-        <v>3.206695339016949</v>
+        <v>3.20669532874891</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7824929989530134</v>
+        <v>0.7824930002808905</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5344492231694916</v>
+        <v>0.5344492214581517</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +2578,19 @@
         <v>4.9503</v>
       </c>
       <c r="B111" t="n">
-        <v>6.361317406360339e-12</v>
+        <v>5.062175543449576e-13</v>
       </c>
       <c r="C111" t="n">
-        <v>1.705462627496505e-12</v>
+        <v>1.357164037707539e-13</v>
       </c>
       <c r="D111" t="n">
-        <v>11.54202548766571</v>
+        <v>11.54202537528526</v>
       </c>
       <c r="E111" t="n">
-        <v>0.07300106852888273</v>
+        <v>0.07300107144507302</v>
       </c>
       <c r="F111" t="n">
-        <v>1.923670914610952</v>
+        <v>1.923670895880877</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +2598,19 @@
         <v>4.9568</v>
       </c>
       <c r="B112" t="n">
-        <v>5.293428067624552e-12</v>
+        <v>4.212376216752915e-13</v>
       </c>
       <c r="C112" t="n">
-        <v>1.66705668962037e-12</v>
+        <v>1.326601563663419e-13</v>
       </c>
       <c r="D112" t="n">
-        <v>2.838977512173573</v>
+        <v>2.838977508886285</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8287685678472241</v>
+        <v>0.82876856824769</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4731629186955955</v>
+        <v>0.4731629181477141</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +2618,19 @@
         <v>4.9619</v>
       </c>
       <c r="B113" t="n">
-        <v>9.137087440482388e-12</v>
+        <v>7.271063171279395e-13</v>
       </c>
       <c r="C113" t="n">
-        <v>1.806113543012742e-12</v>
+        <v>1.437259490552748e-13</v>
       </c>
       <c r="D113" t="n">
-        <v>5.613932077021863</v>
+        <v>5.613932092610796</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4677948057303886</v>
+        <v>0.4677948038760851</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9356553461703104</v>
+        <v>0.9356553487684659</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +2638,19 @@
         <v>4.9647</v>
       </c>
       <c r="B114" t="n">
-        <v>9.421275045789458e-12</v>
+        <v>7.497212469280453e-13</v>
       </c>
       <c r="C114" t="n">
-        <v>1.912717969353581e-12</v>
+        <v>1.522092597853494e-13</v>
       </c>
       <c r="D114" t="n">
-        <v>3.81134322909027</v>
+        <v>3.81134321073579</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7021889559505288</v>
+        <v>0.7021889584288385</v>
       </c>
       <c r="F114" t="n">
-        <v>0.635223871515045</v>
+        <v>0.6352238684559649</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +2658,19 @@
         <v>4.9679</v>
       </c>
       <c r="B115" t="n">
-        <v>1.398828343198302e-11</v>
+        <v>1.113152226136028e-12</v>
       </c>
       <c r="C115" t="n">
-        <v>2.11272480368932e-12</v>
+        <v>1.681252979152403e-13</v>
       </c>
       <c r="D115" t="n">
-        <v>4.677230773153661</v>
+        <v>4.677230767558605</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5858253146226851</v>
+        <v>0.5858253153606137</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7795384621922768</v>
+        <v>0.7795384612597674</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +2678,19 @@
         <v>4.97</v>
       </c>
       <c r="B116" t="n">
-        <v>1.058020499023002e-11</v>
+        <v>8.419459617360669e-13</v>
       </c>
       <c r="C116" t="n">
-        <v>2.917089149375971e-12</v>
+        <v>2.321345787468997e-13</v>
       </c>
       <c r="D116" t="n">
-        <v>1.165424760966026</v>
+        <v>1.165424761436863</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9785580381026784</v>
+        <v>0.9785580380803606</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1942374601610043</v>
+        <v>0.1942374602394772</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +2698,19 @@
         <v>4.9728</v>
       </c>
       <c r="B117" t="n">
-        <v>1.719479390150814e-11</v>
+        <v>1.368318224442177e-12</v>
       </c>
       <c r="C117" t="n">
-        <v>2.044971450310441e-12</v>
+        <v>1.627336574258582e-13</v>
       </c>
       <c r="D117" t="n">
-        <v>4.660645389733817</v>
+        <v>4.66064541484817</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5880140552960502</v>
+        <v>0.5880140519797963</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7767742316223029</v>
+        <v>0.7767742358080283</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +2718,19 @@
         <v>4.9746</v>
       </c>
       <c r="B118" t="n">
-        <v>1.666304738957414e-11</v>
+        <v>1.326003176857971e-12</v>
       </c>
       <c r="C118" t="n">
-        <v>2.492489199896409e-12</v>
+        <v>1.983459883022279e-13</v>
       </c>
       <c r="D118" t="n">
-        <v>3.292520926248544</v>
+        <v>3.292520893848049</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7713374260566468</v>
+        <v>0.7713374302884642</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5487534877080907</v>
+        <v>0.5487534823080081</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +2738,19 @@
         <v>4.9847</v>
       </c>
       <c r="B119" t="n">
-        <v>2.044039083707178e-11</v>
+        <v>1.626594619893934e-12</v>
       </c>
       <c r="C119" t="n">
-        <v>2.171008646099921e-12</v>
+        <v>1.727633787757393e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>19.09768186591236</v>
+        <v>19.09768190966248</v>
       </c>
       <c r="E119" t="n">
-        <v>0.004001804983592264</v>
+        <v>0.004001804912501752</v>
       </c>
       <c r="F119" t="n">
-        <v>3.18294697765206</v>
+        <v>3.182946984943746</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +2758,19 @@
         <v>4.9901</v>
       </c>
       <c r="B120" t="n">
-        <v>2.003098252395536e-11</v>
+        <v>1.594014941883044e-12</v>
       </c>
       <c r="C120" t="n">
-        <v>2.808111534268574e-12</v>
+        <v>2.234624156728744e-13</v>
       </c>
       <c r="D120" t="n">
-        <v>14.14571000556236</v>
+        <v>14.14571003635012</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02805018460466354</v>
+        <v>0.02805018427822172</v>
       </c>
       <c r="F120" t="n">
-        <v>2.357618334260393</v>
+        <v>2.357618339391686</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +2778,19 @@
         <v>4.9947</v>
       </c>
       <c r="B121" t="n">
-        <v>2.174689854905759e-11</v>
+        <v>1.730563201369979e-12</v>
       </c>
       <c r="C121" t="n">
-        <v>2.131036135575498e-12</v>
+        <v>1.695824674149396e-13</v>
       </c>
       <c r="D121" t="n">
-        <v>4.624046627238995</v>
+        <v>4.624046583838153</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5928529555611555</v>
+        <v>0.5928529613065996</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7706744378731658</v>
+        <v>0.7706744306396921</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +2798,19 @@
         <v>5.0046</v>
       </c>
       <c r="B122" t="n">
-        <v>2.267229899332449e-11</v>
+        <v>1.804204227172311e-12</v>
       </c>
       <c r="C122" t="n">
-        <v>1.770971146007323e-12</v>
+        <v>1.409294059967236e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>22.52818532252414</v>
+        <v>22.5281852854</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0009709244800888221</v>
+        <v>0.0009709244951915536</v>
       </c>
       <c r="F122" t="n">
-        <v>3.754697553754023</v>
+        <v>3.754697547566667</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +2818,19 @@
         <v>5.01</v>
       </c>
       <c r="B123" t="n">
-        <v>2.094481135272174e-11</v>
+        <v>1.666735130544296e-12</v>
       </c>
       <c r="C123" t="n">
-        <v>2.591458495250844e-12</v>
+        <v>2.062217146036658e-13</v>
       </c>
       <c r="D123" t="n">
-        <v>4.113426484952926</v>
+        <v>4.113426512076512</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6613298668550971</v>
+        <v>0.6613298631872147</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6855710808254877</v>
+        <v>0.6855710853460854</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +2838,19 @@
         <v>5.0148</v>
       </c>
       <c r="B124" t="n">
-        <v>1.677477167264315e-11</v>
+        <v>1.334893916926065e-12</v>
       </c>
       <c r="C124" t="n">
-        <v>1.773873803186733e-12</v>
+        <v>1.411603920228572e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>3.077410625541269</v>
+        <v>3.077410641570979</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7990701704537578</v>
+        <v>0.7990701684170659</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5129017709235448</v>
+        <v>0.5129017735951632</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +2858,19 @@
         <v>5.0177</v>
       </c>
       <c r="B125" t="n">
-        <v>1.414885864081658e-11</v>
+        <v>1.12593039636646e-12</v>
       </c>
       <c r="C125" t="n">
-        <v>2.332240621323355e-12</v>
+        <v>1.855938116214806e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>2.597666046141149</v>
+        <v>2.597666065365555</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8573811469785297</v>
+        <v>0.8573811447663339</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4329443410235248</v>
+        <v>0.4329443442275926</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +2878,19 @@
         <v>5.0179</v>
       </c>
       <c r="B126" t="n">
-        <v>1.434484057087411e-11</v>
+        <v>1.141526142413708e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>1.983871080344828e-12</v>
+        <v>1.578714443770052e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>16.17933518478985</v>
+        <v>16.17933525683846</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01282309485002468</v>
+        <v>0.01282309448850747</v>
       </c>
       <c r="F126" t="n">
-        <v>2.696555864131642</v>
+        <v>2.696555876139744</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +2898,19 @@
         <v>5.0198</v>
       </c>
       <c r="B127" t="n">
-        <v>1.145073668304275e-11</v>
+        <v>9.112206728889832e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>2.475163462032241e-12</v>
+        <v>1.969672499881448e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>3.271621108474249</v>
+        <v>3.271621108839478</v>
       </c>
       <c r="E127" t="n">
-        <v>0.774064044863748</v>
+        <v>0.7740640448161545</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5452701847457082</v>
+        <v>0.5452701848065796</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +2918,19 @@
         <v>5.0248</v>
       </c>
       <c r="B128" t="n">
-        <v>3.924077872976158e-12</v>
+        <v>3.122681954078339e-13</v>
       </c>
       <c r="C128" t="n">
-        <v>1.608041812846096e-12</v>
+        <v>1.279639017648521e-13</v>
       </c>
       <c r="D128" t="n">
-        <v>2.660401141709175</v>
+        <v>2.66040113806677</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8501020132999705</v>
+        <v>0.8501020137260237</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4434001902848625</v>
+        <v>0.443400189677795</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +2938,19 @@
         <v>5.0278</v>
       </c>
       <c r="B129" t="n">
-        <v>3.48395809898862e-12</v>
+        <v>2.772445764054211e-13</v>
       </c>
       <c r="C129" t="n">
-        <v>1.472704505618035e-12</v>
+        <v>1.171941009946433e-13</v>
       </c>
       <c r="D129" t="n">
-        <v>2.199562432487812</v>
+        <v>2.199562435626517</v>
       </c>
       <c r="E129" t="n">
-        <v>0.820899170613538</v>
+        <v>0.8208991701602077</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4399124864975625</v>
+        <v>0.4399124871253035</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +2958,19 @@
         <v>5.0301</v>
       </c>
       <c r="B130" t="n">
-        <v>2.115641074328155e-12</v>
+        <v>1.683573677955124e-13</v>
       </c>
       <c r="C130" t="n">
-        <v>1.008134352547158e-12</v>
+        <v>8.022478295501236e-14</v>
       </c>
       <c r="D130" t="n">
-        <v>2.980616959353043</v>
+        <v>2.980616982620012</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7029742881889891</v>
+        <v>0.7029742846017928</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5961233918706086</v>
+        <v>0.5961233965240023</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +2978,19 @@
         <v>5.0328</v>
       </c>
       <c r="B131" t="n">
-        <v>7.607652920860043e-12</v>
+        <v>6.05397784030795e-13</v>
       </c>
       <c r="C131" t="n">
-        <v>3.192214559945319e-12</v>
+        <v>2.540283631601051e-13</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4742529190035983</v>
+        <v>0.4742529223978012</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9759585716841416</v>
+        <v>0.9759585713666697</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1185632297508996</v>
+        <v>0.1185632305994503</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +2998,19 @@
         <v>5.0359</v>
       </c>
       <c r="B132" t="n">
-        <v>4.351011226773828e-12</v>
+        <v>3.462424721503431e-13</v>
       </c>
       <c r="C132" t="n">
-        <v>1.668941508094562e-12</v>
+        <v>1.328101455312017e-13</v>
       </c>
       <c r="D132" t="n">
-        <v>1.818683449046001</v>
+        <v>1.81868345021043</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9355960911890824</v>
+        <v>0.935596091092124</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3031139081743335</v>
+        <v>0.303113908368405</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +3018,19 @@
         <v>5.0387</v>
       </c>
       <c r="B133" t="n">
-        <v>2.68798267804275e-12</v>
+        <v>2.139028645273803e-13</v>
       </c>
       <c r="C133" t="n">
-        <v>1.110490929661838e-12</v>
+        <v>8.83700602636613e-14</v>
       </c>
       <c r="D133" t="n">
-        <v>2.75639269236071</v>
+        <v>2.756392703582121</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8387419501060276</v>
+        <v>0.8387419487630565</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4593987820601184</v>
+        <v>0.4593987839303535</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +3038,19 @@
         <v>5.042</v>
       </c>
       <c r="B134" t="n">
-        <v>5.354742405218454e-12</v>
+        <v>4.26116861924747e-13</v>
       </c>
       <c r="C134" t="n">
-        <v>2.440957656632929e-12</v>
+        <v>1.942452385126471e-13</v>
       </c>
       <c r="D134" t="n">
-        <v>1.341502024865227</v>
+        <v>1.341502026052684</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8542957966627545</v>
+        <v>0.8542957964591225</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3353755062163067</v>
+        <v>0.3353755065131711</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +3058,19 @@
         <v>5.0448</v>
       </c>
       <c r="B135" t="n">
-        <v>5.544568923309902e-12</v>
+        <v>4.412227759953757e-13</v>
       </c>
       <c r="C135" t="n">
-        <v>2.07331503714993e-12</v>
+        <v>1.649891683047269e-13</v>
       </c>
       <c r="D135" t="n">
-        <v>1.46375558707698</v>
+        <v>1.463755594557317</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9618656920991545</v>
+        <v>0.9618656916173312</v>
       </c>
       <c r="F135" t="n">
-        <v>0.24395926451283</v>
+        <v>0.2439592657595528</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +3078,19 @@
         <v>5.05</v>
       </c>
       <c r="B136" t="n">
-        <v>4.333061985935578e-12</v>
+        <v>3.448141177011179e-13</v>
       </c>
       <c r="C136" t="n">
-        <v>1.712697489715891e-12</v>
+        <v>1.362921360307791e-13</v>
       </c>
       <c r="D136" t="n">
-        <v>2.214669748484529</v>
+        <v>2.214669748611231</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8989347137050718</v>
+        <v>0.8989347136922375</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3691116247474215</v>
+        <v>0.3691116247685386</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +3098,19 @@
         <v>5.0548</v>
       </c>
       <c r="B137" t="n">
-        <v>3.063291232186419e-12</v>
+        <v>2.437689707812689e-13</v>
       </c>
       <c r="C137" t="n">
-        <v>1.212967216955473e-12</v>
+        <v>9.652486411155002e-14</v>
       </c>
       <c r="D137" t="n">
-        <v>1.006704456396627</v>
+        <v>1.006704452560838</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9620232017989829</v>
+        <v>0.9620232021104367</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2013408912793254</v>
+        <v>0.2013408905121676</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +3118,19 @@
         <v>5.0649</v>
       </c>
       <c r="B138" t="n">
-        <v>5.656756410904864e-12</v>
+        <v>4.501503720537246e-13</v>
       </c>
       <c r="C138" t="n">
-        <v>1.919251446255275e-12</v>
+        <v>1.527291774421303e-13</v>
       </c>
       <c r="D138" t="n">
-        <v>2.403465465884504</v>
+        <v>2.4034654455175</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8791111217547904</v>
+        <v>0.8791111239657308</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4005775776474172</v>
+        <v>0.4005775742529167</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +3138,19 @@
         <v>5.0699</v>
       </c>
       <c r="B139" t="n">
-        <v>5.576329169484263e-12</v>
+        <v>4.437501758549925e-13</v>
       </c>
       <c r="C139" t="n">
-        <v>2.092548585258639e-12</v>
+        <v>1.665197254584171e-13</v>
       </c>
       <c r="D139" t="n">
-        <v>2.41001016347409</v>
+        <v>2.410010163265751</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8783998910364189</v>
+        <v>0.8783998910590842</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4016683605790151</v>
+        <v>0.4016683605442918</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +3158,19 @@
         <v>5.0745</v>
       </c>
       <c r="B140" t="n">
-        <v>9.349852462418732e-12</v>
+        <v>7.440376174287732e-13</v>
       </c>
       <c r="C140" t="n">
-        <v>1.845740562623306e-12</v>
+        <v>1.468793670600961e-13</v>
       </c>
       <c r="D140" t="n">
-        <v>14.49497192156222</v>
+        <v>14.49497189321889</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02457017480884665</v>
+        <v>0.02457017507383246</v>
       </c>
       <c r="F140" t="n">
-        <v>2.415828653593703</v>
+        <v>2.415828648869815</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +3178,19 @@
         <v>5.0842</v>
       </c>
       <c r="B141" t="n">
-        <v>6.35867728248517e-12</v>
+        <v>5.060074596800679e-13</v>
       </c>
       <c r="C141" t="n">
-        <v>1.787685996612659e-12</v>
+        <v>1.4225953156506e-13</v>
       </c>
       <c r="D141" t="n">
-        <v>4.359558483749858</v>
+        <v>4.359558445390896</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6281406507668563</v>
+        <v>0.628140655918737</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7265930806249763</v>
+        <v>0.726593074231816</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +3198,19 @@
         <v>5.09</v>
       </c>
       <c r="B142" t="n">
-        <v>5.665082701725978e-12</v>
+        <v>4.50812957053764e-13</v>
       </c>
       <c r="C142" t="n">
-        <v>1.721734829720087e-12</v>
+        <v>1.370113043923795e-13</v>
       </c>
       <c r="D142" t="n">
-        <v>5.386519562819168</v>
+        <v>5.386519531659076</v>
       </c>
       <c r="E142" t="n">
-        <v>0.495277042644492</v>
+        <v>0.495277046467695</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8977532604698614</v>
+        <v>0.8977532552765126</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +3218,19 @@
         <v>5.0937</v>
       </c>
       <c r="B143" t="n">
-        <v>3.00710628035218e-12</v>
+        <v>2.392979142704731e-13</v>
       </c>
       <c r="C143" t="n">
-        <v>1.194625016939685e-12</v>
+        <v>9.506523805181281e-14</v>
       </c>
       <c r="D143" t="n">
-        <v>2.279104817684174</v>
+        <v>2.279104818726608</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8923241090345613</v>
+        <v>0.8923241089262794</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3798508029473623</v>
+        <v>0.3798508031211013</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +3238,19 @@
         <v>5.0968</v>
       </c>
       <c r="B144" t="n">
-        <v>3.554465812532854e-12</v>
+        <v>2.828554018927473e-13</v>
       </c>
       <c r="C144" t="n">
-        <v>1.347790941286233e-12</v>
+        <v>1.072537952399878e-13</v>
       </c>
       <c r="D144" t="n">
-        <v>1.764461251011396</v>
+        <v>1.764461247710097</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9400370618703497</v>
+        <v>0.9400370621362025</v>
       </c>
       <c r="F144" t="n">
-        <v>0.294076875168566</v>
+        <v>0.2940768746183495</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +3258,19 @@
         <v>5.0989</v>
       </c>
       <c r="B145" t="n">
-        <v>6.453189706996524e-12</v>
+        <v>5.135285207185768e-13</v>
       </c>
       <c r="C145" t="n">
-        <v>2.639502767161177e-12</v>
+        <v>2.100449563783859e-13</v>
       </c>
       <c r="D145" t="n">
-        <v>1.455202497707482</v>
+        <v>1.455202504687243</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9181808175885774</v>
+        <v>0.9181808168014931</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2910404995414965</v>
+        <v>0.2910405009374485</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +3278,19 @@
         <v>5.1</v>
       </c>
       <c r="B146" t="n">
-        <v>4.943835087259469e-12</v>
+        <v>3.934178955381459e-13</v>
       </c>
       <c r="C146" t="n">
-        <v>1.961396983143952e-12</v>
+        <v>1.560830125177876e-13</v>
       </c>
       <c r="D146" t="n">
-        <v>2.262119994317461</v>
+        <v>2.262119999631668</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8940827151444574</v>
+        <v>0.8940827145960079</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3770199990529102</v>
+        <v>0.3770199999386114</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +3298,19 @@
         <v>5.1004</v>
       </c>
       <c r="B147" t="n">
-        <v>1.669399478382769e-12</v>
+        <v>6.252461209164736e-13</v>
       </c>
       <c r="C147" t="n">
-        <v>1.020752409359413e-12</v>
+        <v>2.990881447307627e-13</v>
       </c>
       <c r="D147" t="n">
-        <v>4.577252524015565</v>
+        <v>1.65098872152949</v>
       </c>
       <c r="E147" t="n">
-        <v>0.469614319043596</v>
+        <v>0.7996001187840679</v>
       </c>
       <c r="F147" t="n">
-        <v>0.915450504803113</v>
+        <v>0.4127471803823724</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +3318,19 @@
         <v>5.1007</v>
       </c>
       <c r="B148" t="n">
-        <v>9.428840428517135e-12</v>
+        <v>7.503232812529525e-13</v>
       </c>
       <c r="C148" t="n">
-        <v>3.594773837178175e-12</v>
+        <v>2.86063012709449e-13</v>
       </c>
       <c r="D148" t="n">
-        <v>0.504853173953124</v>
+        <v>0.5048531763813102</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9919445114999823</v>
+        <v>0.991944511409993</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1009706347906248</v>
+        <v>0.100970635276262</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +3338,19 @@
         <v>5.1029</v>
       </c>
       <c r="B149" t="n">
-        <v>3.993681105863643e-12</v>
+        <v>3.178070445916144e-13</v>
       </c>
       <c r="C149" t="n">
-        <v>1.685592811854334e-12</v>
+        <v>1.341352139421335e-13</v>
       </c>
       <c r="D149" t="n">
-        <v>1.771015872351402</v>
+        <v>1.771015871827398</v>
       </c>
       <c r="E149" t="n">
-        <v>0.879834295315213</v>
+        <v>0.8798342953829591</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3542031744702803</v>
+        <v>0.3542031743654796</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +3358,19 @@
         <v>5.1049</v>
       </c>
       <c r="B150" t="n">
-        <v>6.461217083743907e-12</v>
+        <v>5.141673187705856e-13</v>
       </c>
       <c r="C150" t="n">
-        <v>2.543507564922324e-12</v>
+        <v>2.024059010011539e-13</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9316015241845751</v>
+        <v>0.9316015282311567</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9678917999379557</v>
+        <v>0.9678917996342677</v>
       </c>
       <c r="F150" t="n">
-        <v>0.186320304836915</v>
+        <v>0.1863203056462313</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +3378,19 @@
         <v>5.1069</v>
       </c>
       <c r="B151" t="n">
-        <v>6.896718484259194e-12</v>
+        <v>5.48823419399786e-13</v>
       </c>
       <c r="C151" t="n">
-        <v>2.94874465274176e-12</v>
+        <v>2.346536433759815e-13</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6835521659926256</v>
+        <v>0.6835521706458005</v>
       </c>
       <c r="E151" t="n">
-        <v>0.953341677192058</v>
+        <v>0.9533416766270825</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1708880414981564</v>
+        <v>0.1708880426614501</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +3398,19 @@
         <v>5.1088</v>
       </c>
       <c r="B152" t="n">
-        <v>4.074285757077016e-12</v>
+        <v>3.242213586971111e-13</v>
       </c>
       <c r="C152" t="n">
-        <v>1.713956087533704e-12</v>
+        <v>1.363922915647089e-13</v>
       </c>
       <c r="D152" t="n">
-        <v>2.964667191056572</v>
+        <v>2.964667197729807</v>
       </c>
       <c r="E152" t="n">
-        <v>0.813268239527811</v>
+        <v>0.8132682386952828</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4941111985094287</v>
+        <v>0.4941111996216345</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +3418,19 @@
         <v>5.11</v>
       </c>
       <c r="B153" t="n">
-        <v>2.825601196128884e-12</v>
+        <v>2.248541990790323e-13</v>
       </c>
       <c r="C153" t="n">
-        <v>1.423214640676672e-12</v>
+        <v>1.132558226551347e-13</v>
       </c>
       <c r="D153" t="n">
-        <v>3.466974309613633</v>
+        <v>3.466974301913965</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6283906227295704</v>
+        <v>0.6283906238973014</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6933948619227266</v>
+        <v>0.6933948603827931</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +3438,19 @@
         <v>5.1108</v>
       </c>
       <c r="B154" t="n">
-        <v>4.17652051715666e-12</v>
+        <v>3.323569430610475e-13</v>
       </c>
       <c r="C154" t="n">
-        <v>1.649477423605284e-12</v>
+        <v>1.312612427926235e-13</v>
       </c>
       <c r="D154" t="n">
-        <v>2.204226508089739</v>
+        <v>2.204226506675856</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8999903318895733</v>
+        <v>0.899990332032188</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3673710846816231</v>
+        <v>0.367371084445976</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +3458,19 @@
         <v>5.1138</v>
       </c>
       <c r="B155" t="n">
-        <v>1.6020707672986e-12</v>
+        <v>4.849889110701564e-13</v>
       </c>
       <c r="C155" t="n">
-        <v>8.757538173720104e-13</v>
+        <v>2.075857215575921e-13</v>
       </c>
       <c r="D155" t="n">
-        <v>4.038050024360098</v>
+        <v>0.6954046251827348</v>
       </c>
       <c r="E155" t="n">
-        <v>0.543950794774222</v>
+        <v>0.9518944132002427</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8076100048720196</v>
+        <v>0.1738511562956837</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +3478,19 @@
         <v>5.1188</v>
       </c>
       <c r="B156" t="n">
-        <v>2.722700499956523e-12</v>
+        <v>2.1666562144202e-13</v>
       </c>
       <c r="C156" t="n">
-        <v>1.372913320746339e-12</v>
+        <v>1.092529706236378e-13</v>
       </c>
       <c r="D156" t="n">
-        <v>2.220940704077914</v>
+        <v>2.220940713448628</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6951973521941903</v>
+        <v>0.6951973504803178</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5552351760194785</v>
+        <v>0.555235178362157</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +3498,19 @@
         <v>5.1238</v>
       </c>
       <c r="B157" t="n">
-        <v>1.126374832499649e-11</v>
+        <v>8.963406114320745e-13</v>
       </c>
       <c r="C157" t="n">
-        <v>3.940943998695496e-12</v>
+        <v>3.136103590302725e-13</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4464513453797615</v>
+        <v>0.4464513449207563</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9984304226844621</v>
+        <v>0.9984304226890361</v>
       </c>
       <c r="F157" t="n">
-        <v>0.07440855756329358</v>
+        <v>0.07440855748679272</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +3518,19 @@
         <v>5.1285</v>
       </c>
       <c r="B158" t="n">
-        <v>5.375727652311691e-12</v>
+        <v>4.277868148480682e-13</v>
       </c>
       <c r="C158" t="n">
-        <v>1.953630032945079e-12</v>
+        <v>1.554649385459209e-13</v>
       </c>
       <c r="D158" t="n">
-        <v>2.194641018202825</v>
+        <v>2.194641011385289</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9009553039156931</v>
+        <v>0.9009553046006673</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3657735030338042</v>
+        <v>0.3657735018975483</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +3538,19 @@
         <v>5.1299</v>
       </c>
       <c r="B159" t="n">
-        <v>2.245782870765323e-12</v>
+        <v>1.7871372212315e-13</v>
       </c>
       <c r="C159" t="n">
-        <v>1.156730442178728e-12</v>
+        <v>9.204968402822417e-14</v>
       </c>
       <c r="D159" t="n">
-        <v>5.238943442093938</v>
+        <v>5.238943430896153</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5135523606488301</v>
+        <v>0.5135523620480222</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8731572403489897</v>
+        <v>0.8731572384826922</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +3558,19 @@
         <v>5.1338</v>
       </c>
       <c r="B160" t="n">
-        <v>7.19538894539067e-12</v>
+        <v>5.725908579506012e-13</v>
       </c>
       <c r="C160" t="n">
-        <v>2.706207613635299e-12</v>
+        <v>2.153531592444655e-13</v>
       </c>
       <c r="D160" t="n">
-        <v>1.866089697444505</v>
+        <v>1.86608969136272</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9315929772975896</v>
+        <v>0.9315929778182565</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3110149495740842</v>
+        <v>0.3110149485604534</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +3578,19 @@
         <v>5.1389</v>
       </c>
       <c r="B161" t="n">
-        <v>8.557987069696909e-12</v>
+        <v>6.810229725482835e-13</v>
       </c>
       <c r="C161" t="n">
-        <v>2.862653726016862e-12</v>
+        <v>2.278027453754074e-13</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6936604597853681</v>
+        <v>0.6936604587993245</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9946268598311151</v>
+        <v>0.9946268598520775</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1156100766308947</v>
+        <v>0.1156100764665541</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +3598,19 @@
         <v>5.1417</v>
       </c>
       <c r="B162" t="n">
-        <v>8.249631107652706e-12</v>
+        <v>6.564847844148946e-13</v>
       </c>
       <c r="C162" t="n">
-        <v>3.017234495793794e-12</v>
+        <v>2.401038923239068e-13</v>
       </c>
       <c r="D162" t="n">
-        <v>1.108747091554318</v>
+        <v>1.108747079728163</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9811520126336118</v>
+        <v>0.9811520131555599</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1847911819257196</v>
+        <v>0.1847911799546938</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +3618,19 @@
         <v>5.1447</v>
       </c>
       <c r="B163" t="n">
-        <v>9.794475328890006e-12</v>
+        <v>7.794195826805112e-13</v>
       </c>
       <c r="C163" t="n">
-        <v>3.534359032119526e-12</v>
+        <v>2.812553555409088e-13</v>
       </c>
       <c r="D163" t="n">
-        <v>0.535536761296214</v>
+        <v>0.5355367670372364</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9973787923495443</v>
+        <v>0.9973787922708112</v>
       </c>
       <c r="F163" t="n">
-        <v>0.08925612688270233</v>
+        <v>0.0892561278395394</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +3638,19 @@
         <v>5.148</v>
       </c>
       <c r="B164" t="n">
-        <v>1.374284200782607e-11</v>
+        <v>1.093620619578062e-12</v>
       </c>
       <c r="C164" t="n">
-        <v>4.626810551266631e-12</v>
+        <v>3.681898855318464e-13</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4160117560624306</v>
+        <v>0.4160117603720248</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9987156596885347</v>
+        <v>0.9987156596506737</v>
       </c>
       <c r="F164" t="n">
-        <v>0.06933529267707177</v>
+        <v>0.06933529339533746</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +3658,19 @@
         <v>5.15</v>
       </c>
       <c r="B165" t="n">
-        <v>8.073984337019599e-12</v>
+        <v>6.425072591527593e-13</v>
       </c>
       <c r="C165" t="n">
-        <v>3.28831632839973e-12</v>
+        <v>2.616758991974538e-13</v>
       </c>
       <c r="D165" t="n">
-        <v>2.642155742413957</v>
+        <v>2.642155737183602</v>
       </c>
       <c r="E165" t="n">
-        <v>0.852231254924865</v>
+        <v>0.8522312555338283</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4403592904023262</v>
+        <v>0.4403592895306004</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +3678,19 @@
         <v>5.151</v>
       </c>
       <c r="B166" t="n">
-        <v>6.830313971749758e-12</v>
+        <v>5.43539115808373e-13</v>
       </c>
       <c r="C166" t="n">
-        <v>2.274304266780278e-12</v>
+        <v>1.80983383326059e-13</v>
       </c>
       <c r="D166" t="n">
-        <v>5.391918751308153</v>
+        <v>5.391918758334802</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4946148168424874</v>
+        <v>0.494614815980949</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8986531252180255</v>
+        <v>0.8986531263891337</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +3698,19 @@
         <v>5.157</v>
       </c>
       <c r="B167" t="n">
-        <v>7.822104623700053e-12</v>
+        <v>6.224633094913278e-13</v>
       </c>
       <c r="C167" t="n">
-        <v>2.325979074870839e-12</v>
+        <v>1.850955339343724e-13</v>
       </c>
       <c r="D167" t="n">
-        <v>9.580879179094813</v>
+        <v>9.580879196824261</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1434481406493312</v>
+        <v>0.1434481398041992</v>
       </c>
       <c r="F167" t="n">
-        <v>1.596813196515802</v>
+        <v>1.59681319947071</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +3718,19 @@
         <v>5.1594</v>
       </c>
       <c r="B168" t="n">
-        <v>1.654008535934922e-11</v>
+        <v>1.316218170180529e-12</v>
       </c>
       <c r="C168" t="n">
-        <v>3.037645675209464e-12</v>
+        <v>2.417281623080706e-13</v>
       </c>
       <c r="D168" t="n">
-        <v>1.396386978242872</v>
+        <v>1.396386993619298</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9660778333676924</v>
+        <v>0.9660778324354574</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2327311630404787</v>
+        <v>0.2327311656032163</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +3738,19 @@
         <v>5.17</v>
       </c>
       <c r="B169" t="n">
-        <v>1.76537305356271e-11</v>
+        <v>1.404839239205631e-12</v>
       </c>
       <c r="C169" t="n">
-        <v>4.097051336495053e-12</v>
+        <v>3.260329863490585e-13</v>
       </c>
       <c r="D169" t="n">
-        <v>2.455546152562261</v>
+        <v>2.455546167751937</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8734092083692333</v>
+        <v>0.8734092066923237</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4092576920937102</v>
+        <v>0.4092576946253228</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +3758,19 @@
         <v>5.1898</v>
       </c>
       <c r="B170" t="n">
-        <v>1.730697993172556e-11</v>
+        <v>1.377245704962022e-12</v>
       </c>
       <c r="C170" t="n">
-        <v>2.518100201457431e-12</v>
+        <v>2.003840471097916e-13</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9222912330298283</v>
+        <v>0.9222912427923831</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9883872698654994</v>
+        <v>0.9883872695382291</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1537152055049714</v>
+        <v>0.1537152071320639</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +3778,19 @@
         <v>5.21</v>
       </c>
       <c r="B171" t="n">
-        <v>1.931786196397833e-11</v>
+        <v>1.537266614107012e-12</v>
       </c>
       <c r="C171" t="n">
-        <v>3.378149783126372e-12</v>
+        <v>2.688246181063198e-13</v>
       </c>
       <c r="D171" t="n">
-        <v>4.35336488419872</v>
+        <v>4.353364899560381</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6289726007747791</v>
+        <v>0.6289725987110761</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7255608140331201</v>
+        <v>0.7255608165933968</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +3798,19 @@
         <v>5.23</v>
       </c>
       <c r="B172" t="n">
-        <v>9.324666129581561e-12</v>
+        <v>7.420333532610455e-13</v>
       </c>
       <c r="C172" t="n">
-        <v>3.174355442480235e-12</v>
+        <v>2.526071797946507e-13</v>
       </c>
       <c r="D172" t="n">
-        <v>2.945896143124302</v>
+        <v>2.945896145986807</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8156061817502412</v>
+        <v>0.8156061813943085</v>
       </c>
       <c r="F172" t="n">
-        <v>0.490982690520717</v>
+        <v>0.4909826909978012</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +3818,19 @@
         <v>5.2395</v>
       </c>
       <c r="B173" t="n">
-        <v>1.18259059639554e-11</v>
+        <v>9.410756961035575e-13</v>
       </c>
       <c r="C173" t="n">
-        <v>2.841346425135141e-12</v>
+        <v>2.26107164291635e-13</v>
       </c>
       <c r="D173" t="n">
-        <v>6.024829426459046</v>
+        <v>6.024829430619431</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4204144292761102</v>
+        <v>0.4204144288119926</v>
       </c>
       <c r="F173" t="n">
-        <v>1.004138237743174</v>
+        <v>1.004138238436572</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +3838,19 @@
         <v>5.2431</v>
       </c>
       <c r="B174" t="n">
-        <v>4.541344799489326e-12</v>
+        <v>3.613887362905646e-13</v>
       </c>
       <c r="C174" t="n">
-        <v>2.000559703503101e-12</v>
+        <v>1.591994827827871e-13</v>
       </c>
       <c r="D174" t="n">
-        <v>4.176215211030922</v>
+        <v>4.176215214531313</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6528433686918034</v>
+        <v>0.6528433682189694</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6960358685051536</v>
+        <v>0.6960358690885521</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +3858,19 @@
         <v>5.2501</v>
       </c>
       <c r="B175" t="n">
-        <v>7.781453187864632e-12</v>
+        <v>6.192283697589339e-13</v>
       </c>
       <c r="C175" t="n">
-        <v>2.895243922959578e-12</v>
+        <v>2.303961908843519e-13</v>
       </c>
       <c r="D175" t="n">
-        <v>1.391827664281785</v>
+        <v>1.391827667593456</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9663536657914966</v>
+        <v>0.9663536655915719</v>
       </c>
       <c r="F175" t="n">
-        <v>0.2319712773802975</v>
+        <v>0.2319712779322427</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +3878,19 @@
         <v>5.2599</v>
       </c>
       <c r="B176" t="n">
-        <v>6.189682120230966e-12</v>
+        <v>4.925592531017177e-13</v>
       </c>
       <c r="C176" t="n">
-        <v>2.386427915626197e-12</v>
+        <v>1.899058996140785e-13</v>
       </c>
       <c r="D176" t="n">
-        <v>2.05082657850952</v>
+        <v>2.050826586699947</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9149651985014843</v>
+        <v>0.9149651977293141</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3418044297515866</v>
+        <v>0.3418044311166578</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +3898,19 @@
         <v>5.265</v>
       </c>
       <c r="B177" t="n">
-        <v>1.201506940831349e-11</v>
+        <v>9.561288452659521e-13</v>
       </c>
       <c r="C177" t="n">
-        <v>4.505612755472353e-12</v>
+        <v>3.585452708022223e-13</v>
       </c>
       <c r="D177" t="n">
-        <v>1.504152679766805</v>
+        <v>1.504152684184356</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9592182349387059</v>
+        <v>0.9592182346442483</v>
       </c>
       <c r="F177" t="n">
-        <v>0.2506921132944676</v>
+        <v>0.2506921140307261</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +3918,19 @@
         <v>5.27</v>
       </c>
       <c r="B178" t="n">
-        <v>1.325176584014217e-11</v>
+        <v>1.054542020232429e-12</v>
       </c>
       <c r="C178" t="n">
-        <v>5.37883673772368e-12</v>
+        <v>4.280342274738799e-13</v>
       </c>
       <c r="D178" t="n">
-        <v>1.314865694580445</v>
+        <v>1.314865695571044</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9333946013455258</v>
+        <v>0.9333946012426083</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2629731389160891</v>
+        <v>0.2629731391142087</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +3938,19 @@
         <v>5.275</v>
       </c>
       <c r="B179" t="n">
-        <v>7.19659365804395e-12</v>
+        <v>5.72686726776233e-13</v>
       </c>
       <c r="C179" t="n">
-        <v>2.022448531032195e-12</v>
+        <v>1.609413404099576e-13</v>
       </c>
       <c r="D179" t="n">
-        <v>3.338096277549408</v>
+        <v>3.338096262728612</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9926497225412582</v>
+        <v>0.9926497226919696</v>
       </c>
       <c r="F179" t="n">
-        <v>0.278174689795784</v>
+        <v>0.2781746885607177</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +3958,19 @@
         <v>5.2798</v>
       </c>
       <c r="B180" t="n">
-        <v>5.123806085094189e-12</v>
+        <v>4.077395326003002e-13</v>
       </c>
       <c r="C180" t="n">
-        <v>2.790656679789166e-12</v>
+        <v>2.220734025921984e-13</v>
       </c>
       <c r="D180" t="n">
-        <v>3.863659454178105</v>
+        <v>3.863659441155822</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5692080568062041</v>
+        <v>0.5692080587116265</v>
       </c>
       <c r="F180" t="n">
-        <v>0.772731890835621</v>
+        <v>0.7727318882311643</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +3978,19 @@
         <v>5.285</v>
       </c>
       <c r="B181" t="n">
-        <v>2.897043415254755e-13</v>
+        <v>4.512888441622947e-13</v>
       </c>
       <c r="C181" t="n">
-        <v>2.286759909291803e-13</v>
+        <v>2.257898705513746e-13</v>
       </c>
       <c r="D181" t="n">
-        <v>5.779638185318234</v>
+        <v>2.15899790778869</v>
       </c>
       <c r="E181" t="n">
-        <v>0.328255031466363</v>
+        <v>0.7065424620019741</v>
       </c>
       <c r="F181" t="n">
-        <v>1.155927637063647</v>
+        <v>0.5397494769471726</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +3998,19 @@
         <v>5.2902</v>
       </c>
       <c r="B182" t="n">
-        <v>8.539430830522192e-13</v>
+        <v>9.578379272247953e-13</v>
       </c>
       <c r="C182" t="n">
-        <v>5.948845329621626e-13</v>
+        <v>3.677356865037044e-13</v>
       </c>
       <c r="D182" t="n">
-        <v>6.554790289604108</v>
+        <v>0.6001988218041527</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3639863746430708</v>
+        <v>0.9879941378414643</v>
       </c>
       <c r="F182" t="n">
-        <v>1.092465048267351</v>
+        <v>0.1200397643608306</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +4018,19 @@
         <v>5.2929</v>
       </c>
       <c r="B183" t="n">
-        <v>3.95543021778182e-12</v>
+        <v>3.14763135774964e-13</v>
       </c>
       <c r="C183" t="n">
-        <v>1.606122586579979e-12</v>
+        <v>1.278111744885648e-13</v>
       </c>
       <c r="D183" t="n">
-        <v>2.550394823951118</v>
+        <v>2.550394818871418</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8627855968530922</v>
+        <v>0.8627855974300204</v>
       </c>
       <c r="F183" t="n">
-        <v>0.425065803991853</v>
+        <v>0.4250658031452363</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +4038,19 @@
         <v>5.2977</v>
       </c>
       <c r="B184" t="n">
-        <v>1.673166317269923e-12</v>
+        <v>2.038255172254984e-13</v>
       </c>
       <c r="C184" t="n">
-        <v>7.957288640628468e-13</v>
+        <v>1.024024391590109e-13</v>
       </c>
       <c r="D184" t="n">
-        <v>4.194104801578128</v>
+        <v>3.422779303124779</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6504273074178</v>
+        <v>0.6351029441151324</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6990174669296879</v>
+        <v>0.6845558606249558</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +4058,19 @@
         <v>5.2997</v>
       </c>
       <c r="B185" t="n">
-        <v>7.33511728036326e-12</v>
+        <v>5.837100863320994e-13</v>
       </c>
       <c r="C185" t="n">
-        <v>3.615959763661252e-12</v>
+        <v>2.877489347041103e-13</v>
       </c>
       <c r="D185" t="n">
-        <v>2.038873565600019</v>
+        <v>2.038873574274949</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7286089354209344</v>
+        <v>0.7286089338255679</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5097183914000049</v>
+        <v>0.5097183935687372</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +4078,19 @@
         <v>5.3024</v>
       </c>
       <c r="B186" t="n">
-        <v>4.220377494198887e-12</v>
+        <v>3.358469702886154e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>2.003019869350603e-12</v>
+        <v>1.593952565490823e-13</v>
       </c>
       <c r="D186" t="n">
-        <v>2.945135603309682</v>
+        <v>2.945135600160448</v>
       </c>
       <c r="E186" t="n">
-        <v>0.708444132878523</v>
+        <v>0.7084441333639498</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5890271206619364</v>
+        <v>0.5890271200320896</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +4098,19 @@
         <v>5.3082</v>
       </c>
       <c r="B187" t="n">
-        <v>9.997096057602677e-12</v>
+        <v>7.95543626743057e-13</v>
       </c>
       <c r="C187" t="n">
-        <v>3.842052475928787e-12</v>
+        <v>3.057408213826882e-13</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9124549575914896</v>
+        <v>0.9124549522633848</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9693133981967073</v>
+        <v>0.9693133985880359</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1824909915182979</v>
+        <v>0.182490990452677</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +4118,19 @@
         <v>5.3129</v>
       </c>
       <c r="B188" t="n">
-        <v>6.899761059274769e-12</v>
+        <v>5.490655397612501e-13</v>
       </c>
       <c r="C188" t="n">
-        <v>2.685591398980447e-12</v>
+        <v>2.137125733080197e-13</v>
       </c>
       <c r="D188" t="n">
-        <v>2.105102797921539</v>
+        <v>2.10510280390331</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9097828293553355</v>
+        <v>0.9097828287770542</v>
       </c>
       <c r="F188" t="n">
-        <v>0.3508504663202565</v>
+        <v>0.3508504673172183</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +4138,19 @@
         <v>5.3175</v>
       </c>
       <c r="B189" t="n">
-        <v>7.974088050634454e-12</v>
+        <v>6.345577642479357e-13</v>
       </c>
       <c r="C189" t="n">
-        <v>2.959961637159814e-12</v>
+        <v>2.355462628717492e-13</v>
       </c>
       <c r="D189" t="n">
-        <v>1.97984980440039</v>
+        <v>1.979849779317889</v>
       </c>
       <c r="E189" t="n">
-        <v>0.921542446690658</v>
+        <v>0.9215424489741338</v>
       </c>
       <c r="F189" t="n">
-        <v>0.329974967400065</v>
+        <v>0.3299749632196481</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +4158,19 @@
         <v>5.3228</v>
       </c>
       <c r="B190" t="n">
-        <v>1.241397972972685e-11</v>
+        <v>9.878731190268309e-13</v>
       </c>
       <c r="C190" t="n">
-        <v>4.68311861732193e-12</v>
+        <v>3.726707387589982e-13</v>
       </c>
       <c r="D190" t="n">
-        <v>1.794345977198611</v>
+        <v>1.794345985848674</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9376077586064742</v>
+        <v>0.9376077578967748</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2990576628664351</v>
+        <v>0.2990576643081123</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +4178,19 @@
         <v>5.3277</v>
       </c>
       <c r="B191" t="n">
-        <v>1.140482436617775e-11</v>
+        <v>9.075670852275383e-13</v>
       </c>
       <c r="C191" t="n">
-        <v>4.123574148801152e-12</v>
+        <v>3.281436043757882e-13</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9659456130500029</v>
+        <v>0.9659456026410123</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9868703556443559</v>
+        <v>0.9868703560188471</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1609909355083338</v>
+        <v>0.160990933773502</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +4198,19 @@
         <v>5.3329</v>
       </c>
       <c r="B192" t="n">
-        <v>5.742283860580321e-13</v>
+        <v>9.559147511826143e-13</v>
       </c>
       <c r="C192" t="n">
-        <v>3.100319732531752e-13</v>
+        <v>2.665405483962697e-13</v>
       </c>
       <c r="D192" t="n">
-        <v>13.62066405024563</v>
+        <v>1.727520907928831</v>
       </c>
       <c r="E192" t="n">
-        <v>0.401090343300476</v>
+        <v>0.9992475505543716</v>
       </c>
       <c r="F192" t="n">
-        <v>1.047743388480433</v>
+        <v>0.1570473552662573</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +4218,19 @@
         <v>5.3375</v>
       </c>
       <c r="B193" t="n">
-        <v>9.368669772126971e-13</v>
+        <v>6.995426796614952e-13</v>
       </c>
       <c r="C193" t="n">
-        <v>6.006655026795717e-13</v>
+        <v>2.672394260716721e-13</v>
       </c>
       <c r="D193" t="n">
-        <v>6.182673818620323</v>
+        <v>0.5324573400022533</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4030412524818465</v>
+        <v>0.9908865762804823</v>
       </c>
       <c r="F193" t="n">
-        <v>1.03044563643672</v>
+        <v>0.1064914680004507</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +4238,19 @@
         <v>5.3427</v>
       </c>
       <c r="B194" t="n">
-        <v>1.370191695893148e-11</v>
+        <v>1.090363905916929e-12</v>
       </c>
       <c r="C194" t="n">
-        <v>4.407654618074652e-12</v>
+        <v>3.507500108849031e-13</v>
       </c>
       <c r="D194" t="n">
-        <v>1.793724555432972</v>
+        <v>1.793724536860105</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9376587337690888</v>
+        <v>0.9376587352923281</v>
       </c>
       <c r="F194" t="n">
-        <v>0.2989540925721619</v>
+        <v>0.2989540894766841</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +4258,19 @@
         <v>5.3429</v>
       </c>
       <c r="B195" t="n">
-        <v>1.152547733258668e-11</v>
+        <v>9.171683425809756e-13</v>
       </c>
       <c r="C195" t="n">
-        <v>3.517430685404455e-12</v>
+        <v>2.799082405974671e-13</v>
       </c>
       <c r="D195" t="n">
-        <v>3.616973432738511</v>
+        <v>3.616973405091004</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7283474223710417</v>
+        <v>0.7283474260762346</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6028289054564185</v>
+        <v>0.6028289008485006</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +4278,19 @@
         <v>5.3469</v>
       </c>
       <c r="B196" t="n">
-        <v>1.476605593977661e-11</v>
+        <v>1.175045397010745e-12</v>
       </c>
       <c r="C196" t="n">
-        <v>3.894856601546536e-12</v>
+        <v>3.099428400576384e-13</v>
       </c>
       <c r="D196" t="n">
-        <v>3.448020232576892</v>
+        <v>3.448020227813921</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7508720453254127</v>
+        <v>0.7508720459566165</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5746700387628153</v>
+        <v>0.5746700379689867</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +4298,19 @@
         <v>5.3483</v>
       </c>
       <c r="B197" t="n">
-        <v>1.581327916900608e-11</v>
+        <v>1.258380775002933e-12</v>
       </c>
       <c r="C197" t="n">
-        <v>3.952728140395625e-12</v>
+        <v>3.145481108337504e-13</v>
       </c>
       <c r="D197" t="n">
-        <v>2.938958954659368</v>
+        <v>2.938958983599916</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7093961803663188</v>
+        <v>0.7093961759056598</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5877917909318735</v>
+        <v>0.5877917967199832</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +4318,19 @@
         <v>5.3486</v>
       </c>
       <c r="B198" t="n">
-        <v>1.335743403622351e-11</v>
+        <v>1.062950828118138e-12</v>
       </c>
       <c r="C198" t="n">
-        <v>2.972387068829356e-12</v>
+        <v>2.365350474326598e-13</v>
       </c>
       <c r="D198" t="n">
-        <v>2.606467406733059</v>
+        <v>2.606467425584694</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8563671544220689</v>
+        <v>0.8563671522476338</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4344112344555098</v>
+        <v>0.434411237597449</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +4338,19 @@
         <v>5.3521</v>
       </c>
       <c r="B199" t="n">
-        <v>8.223820338822496e-12</v>
+        <v>6.544308296155049e-13</v>
       </c>
       <c r="C199" t="n">
-        <v>3.522002040360583e-12</v>
+        <v>2.80272017101689e-13</v>
       </c>
       <c r="D199" t="n">
-        <v>1.902905029834373</v>
+        <v>1.902905040366825</v>
       </c>
       <c r="E199" t="n">
-        <v>0.862410276101319</v>
+        <v>0.8624102746814988</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3805810059668746</v>
+        <v>0.3805810080733649</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +4358,19 @@
         <v>5.3536</v>
       </c>
       <c r="B200" t="n">
-        <v>1.805165926801756e-11</v>
+        <v>1.436505401421713e-12</v>
       </c>
       <c r="C200" t="n">
-        <v>3.267708111390172e-12</v>
+        <v>2.600359493232932e-13</v>
       </c>
       <c r="D200" t="n">
-        <v>2.523597498182863</v>
+        <v>2.523597458595795</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8658174378355166</v>
+        <v>0.8658174422970205</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4205995830304771</v>
+        <v>0.4205995764326325</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +4378,19 @@
         <v>5.3579</v>
       </c>
       <c r="B201" t="n">
-        <v>8.975004210764333e-12</v>
+        <v>7.142081416200789e-13</v>
       </c>
       <c r="C201" t="n">
-        <v>3.262796806742417e-12</v>
+        <v>2.596451202313143e-13</v>
       </c>
       <c r="D201" t="n">
-        <v>1.04898518100454</v>
+        <v>1.048985179730436</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9836869907388107</v>
+        <v>0.9836869907906716</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1748308635007566</v>
+        <v>0.174830863288406</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +4398,19 @@
         <v>5.3598</v>
       </c>
       <c r="B202" t="n">
-        <v>5.136502900794392e-12</v>
+        <v>4.087499132404486e-13</v>
       </c>
       <c r="C202" t="n">
-        <v>1.946875877734143e-12</v>
+        <v>1.549274596202442e-13</v>
       </c>
       <c r="D202" t="n">
-        <v>1.654594370447477</v>
+        <v>1.654594368915038</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9485725519954478</v>
+        <v>0.9485725521100928</v>
       </c>
       <c r="F202" t="n">
-        <v>0.2757657284079128</v>
+        <v>0.2757657281525063</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +4418,19 @@
         <v>5.3619</v>
       </c>
       <c r="B203" t="n">
-        <v>5.560090233344221e-12</v>
+        <v>4.424579225726092e-13</v>
       </c>
       <c r="C203" t="n">
-        <v>2.412185672333164e-12</v>
+        <v>1.919556369867455e-13</v>
       </c>
       <c r="D203" t="n">
-        <v>1.985177510954866</v>
+        <v>1.985177507155949</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8511921879591022</v>
+        <v>0.8511921884827893</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3970355021909732</v>
+        <v>0.3970355014311897</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +4438,19 @@
         <v>5.3639</v>
       </c>
       <c r="B204" t="n">
-        <v>5.599410727280283e-12</v>
+        <v>4.45586947124988e-13</v>
       </c>
       <c r="C204" t="n">
-        <v>2.410430516338552e-12</v>
+        <v>1.918159657713633e-13</v>
       </c>
       <c r="D204" t="n">
-        <v>4.187738641202611</v>
+        <v>4.187738632358097</v>
       </c>
       <c r="E204" t="n">
-        <v>0.6512869729586772</v>
+        <v>0.6512869741530978</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6979564402004351</v>
+        <v>0.6979564387263495</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +4458,19 @@
         <v>5.366</v>
       </c>
       <c r="B205" t="n">
-        <v>3.5463653360176e-12</v>
+        <v>2.822107874627212e-13</v>
       </c>
       <c r="C205" t="n">
-        <v>1.471769366940248e-12</v>
+        <v>1.171196852215576e-13</v>
       </c>
       <c r="D205" t="n">
-        <v>2.809245633855387</v>
+        <v>2.809245618836549</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8323794616083916</v>
+        <v>0.8323794634267346</v>
       </c>
       <c r="F205" t="n">
-        <v>0.4682076056425644</v>
+        <v>0.4682076031394249</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +4478,19 @@
         <v>5.368</v>
       </c>
       <c r="B206" t="n">
-        <v>9.44452558596353e-12</v>
+        <v>7.515714659518199e-13</v>
       </c>
       <c r="C206" t="n">
-        <v>3.189627690276322e-12</v>
+        <v>2.538225065641207e-13</v>
       </c>
       <c r="D206" t="n">
-        <v>1.409073857473968</v>
+        <v>1.409073852789847</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9653041135011127</v>
+        <v>0.9653041137884547</v>
       </c>
       <c r="F206" t="n">
-        <v>0.2348456429123279</v>
+        <v>0.2348456421316412</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +4498,19 @@
         <v>5.3697</v>
       </c>
       <c r="B207" t="n">
-        <v>8.757072254576065e-12</v>
+        <v>6.968656695014784e-13</v>
       </c>
       <c r="C207" t="n">
-        <v>3.468568467716094e-12</v>
+        <v>2.760199086410129e-13</v>
       </c>
       <c r="D207" t="n">
-        <v>2.392536490614944</v>
+        <v>2.39253649572648</v>
       </c>
       <c r="E207" t="n">
-        <v>0.792585063546022</v>
+        <v>0.7925850627855286</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4785072981229887</v>
+        <v>0.4785072991452959</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +4518,19 @@
         <v>5.3748</v>
       </c>
       <c r="B208" t="n">
-        <v>1.993178454787424e-11</v>
+        <v>1.586121020070129e-12</v>
       </c>
       <c r="C208" t="n">
-        <v>3.374667626732456e-12</v>
+        <v>2.685475169030907e-13</v>
       </c>
       <c r="D208" t="n">
-        <v>3.608555326636631</v>
+        <v>3.608555363078558</v>
       </c>
       <c r="E208" t="n">
-        <v>0.7294753251824719</v>
+        <v>0.7294753203008935</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6014258877727717</v>
+        <v>0.6014258938464264</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +4538,19 @@
         <v>5.3801</v>
       </c>
       <c r="B209" t="n">
-        <v>2.682366670807637e-11</v>
+        <v>2.134559576097914e-12</v>
       </c>
       <c r="C209" t="n">
-        <v>3.173516736145762e-12</v>
+        <v>2.52540437819423e-13</v>
       </c>
       <c r="D209" t="n">
-        <v>9.842489581452922</v>
+        <v>9.842489649731142</v>
       </c>
       <c r="E209" t="n">
-        <v>0.1314437673427347</v>
+        <v>0.1314437643290163</v>
       </c>
       <c r="F209" t="n">
-        <v>1.640414930242154</v>
+        <v>1.640414941621857</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +4558,19 @@
         <v>5.3829</v>
       </c>
       <c r="B210" t="n">
-        <v>3.101201674282534e-11</v>
+        <v>2.467857881341827e-12</v>
       </c>
       <c r="C210" t="n">
-        <v>3.154006479727128e-12</v>
+        <v>2.509878610588748e-13</v>
       </c>
       <c r="D210" t="n">
-        <v>10.73814985359</v>
+        <v>10.73814981214327</v>
       </c>
       <c r="E210" t="n">
-        <v>0.09681427142938082</v>
+        <v>0.0968142728208372</v>
       </c>
       <c r="F210" t="n">
-        <v>1.789691642265001</v>
+        <v>1.789691635357212</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +4578,19 @@
         <v>5.3833</v>
       </c>
       <c r="B211" t="n">
-        <v>2.760888376788393e-11</v>
+        <v>2.197045158501473e-12</v>
       </c>
       <c r="C211" t="n">
-        <v>2.461044403669647e-12</v>
+        <v>1.958436908807405e-13</v>
       </c>
       <c r="D211" t="n">
-        <v>15.09773553244079</v>
+        <v>15.09773565319529</v>
       </c>
       <c r="E211" t="n">
-        <v>0.01951002252925761</v>
+        <v>0.01951002162315919</v>
       </c>
       <c r="F211" t="n">
-        <v>2.516289255406798</v>
+        <v>2.516289275532549</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +4598,19 @@
         <v>5.3839</v>
       </c>
       <c r="B212" t="n">
-        <v>3.288811977785167e-11</v>
+        <v>2.617153416889389e-12</v>
       </c>
       <c r="C212" t="n">
-        <v>2.548992179039142e-12</v>
+        <v>2.028423525386472e-13</v>
       </c>
       <c r="D212" t="n">
-        <v>17.56285442846918</v>
+        <v>17.56285443923654</v>
       </c>
       <c r="E212" t="n">
-        <v>0.00742274814450457</v>
+        <v>0.007422748112629289</v>
       </c>
       <c r="F212" t="n">
-        <v>2.927142404744863</v>
+        <v>2.927142406539423</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +4618,19 @@
         <v>5.386</v>
       </c>
       <c r="B213" t="n">
-        <v>2.974627542851798e-11</v>
+        <v>2.36713338985786e-12</v>
       </c>
       <c r="C213" t="n">
-        <v>2.541600931883746e-12</v>
+        <v>2.02254175827043e-13</v>
       </c>
       <c r="D213" t="n">
-        <v>10.18806861008222</v>
+        <v>10.1880686278117</v>
       </c>
       <c r="E213" t="n">
-        <v>0.1169522107196968</v>
+        <v>0.1169522100142751</v>
       </c>
       <c r="F213" t="n">
-        <v>1.698011435013703</v>
+        <v>1.698011437968617</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +4638,19 @@
         <v>5.3899</v>
       </c>
       <c r="B214" t="n">
-        <v>2.818259678364602e-11</v>
+        <v>2.242699794875135e-12</v>
       </c>
       <c r="C214" t="n">
-        <v>2.134408706122138e-12</v>
+        <v>1.698508480381606e-13</v>
       </c>
       <c r="D214" t="n">
-        <v>9.058894987435767</v>
+        <v>9.058895012602706</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1702928511774658</v>
+        <v>0.1702928497851209</v>
       </c>
       <c r="F214" t="n">
-        <v>1.509815831239295</v>
+        <v>1.509815835433784</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +4658,19 @@
         <v>5.3931</v>
       </c>
       <c r="B215" t="n">
-        <v>2.711206120536578e-11</v>
+        <v>2.157509277897432e-12</v>
       </c>
       <c r="C215" t="n">
-        <v>2.140450654553287e-12</v>
+        <v>1.703316510906745e-13</v>
       </c>
       <c r="D215" t="n">
-        <v>9.22487171741273</v>
+        <v>9.224871747335962</v>
       </c>
       <c r="E215" t="n">
-        <v>0.1613208087473861</v>
+        <v>0.1613208071673982</v>
       </c>
       <c r="F215" t="n">
-        <v>1.537478619568788</v>
+        <v>1.537478624555994</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +4678,19 @@
         <v>5.4034</v>
       </c>
       <c r="B216" t="n">
-        <v>1.641447046836086e-11</v>
+        <v>1.306222056606416e-12</v>
       </c>
       <c r="C216" t="n">
-        <v>1.859000594379622e-12</v>
+        <v>1.479345669106943e-13</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9140770866451294</v>
+        <v>0.9140770725472948</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9886607472597251</v>
+        <v>0.9886607477258569</v>
       </c>
       <c r="F216" t="n">
-        <v>0.1523461811075216</v>
+        <v>0.1523461787578825</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +4698,19 @@
         <v>5.4141</v>
       </c>
       <c r="B217" t="n">
-        <v>1.838879331637749e-11</v>
+        <v>1.463333676563985e-12</v>
       </c>
       <c r="C217" t="n">
-        <v>2.073124970274446e-12</v>
+        <v>1.6497404333786e-13</v>
       </c>
       <c r="D217" t="n">
-        <v>8.376994402741204</v>
+        <v>8.376994391425304</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2117639472635711</v>
+        <v>0.211763948016414</v>
       </c>
       <c r="F217" t="n">
-        <v>1.396165733790201</v>
+        <v>1.396165731904217</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +4718,19 @@
         <v>5.4244</v>
       </c>
       <c r="B218" t="n">
-        <v>1.199542540526082e-11</v>
+        <v>9.545656239822689e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>1.835663357188913e-12</v>
+        <v>1.460774485068596e-13</v>
       </c>
       <c r="D218" t="n">
-        <v>1.000162428582684</v>
+        <v>1.00016242460908</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9856061639132098</v>
+        <v>0.9856061640638785</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1666937380971139</v>
+        <v>0.1666937374348466</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +4738,19 @@
         <v>5.4354</v>
       </c>
       <c r="B219" t="n">
-        <v>1.475805497840077e-11</v>
+        <v>1.174408697896296e-12</v>
       </c>
       <c r="C219" t="n">
-        <v>1.701012850470407e-12</v>
+        <v>1.353623017120193e-13</v>
       </c>
       <c r="D219" t="n">
-        <v>11.75868611725031</v>
+        <v>11.75868602898945</v>
       </c>
       <c r="E219" t="n">
-        <v>0.06757388105260707</v>
+        <v>0.06757388318564964</v>
       </c>
       <c r="F219" t="n">
-        <v>1.959781019541719</v>
+        <v>1.959781004831575</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +4758,19 @@
         <v>5.4393</v>
       </c>
       <c r="B220" t="n">
-        <v>1.782049203810152e-11</v>
+        <v>1.418109697740576e-12</v>
       </c>
       <c r="C220" t="n">
-        <v>2.161684834954582e-12</v>
+        <v>1.720214133804562e-13</v>
       </c>
       <c r="D220" t="n">
-        <v>5.23314601647565</v>
+        <v>5.233146024708408</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5142770121497222</v>
+        <v>0.5142770111203134</v>
       </c>
       <c r="F220" t="n">
-        <v>0.8721910027459416</v>
+        <v>0.872191004118068</v>
       </c>
     </row>
   </sheetData>
